--- a/Documentation/MetIDs.xlsx
+++ b/Documentation/MetIDs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3754A50-C1F1-4592-BC63-3A7523724B7B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3B4760-D9E3-4D15-8C73-93255B8C858D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="117">
   <si>
     <t>NetID</t>
   </si>
@@ -359,6 +359,18 @@
   </si>
   <si>
     <t>Flight Ring Controller</t>
+  </si>
+  <si>
+    <t>Turret Left</t>
+  </si>
+  <si>
+    <t>Shot Spawn Left</t>
+  </si>
+  <si>
+    <t>Turret Right</t>
+  </si>
+  <si>
+    <t>Shot Spawn Right</t>
   </si>
 </sst>
 </file>
@@ -739,8 +751,8 @@
   <dimension ref="A1:BD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1597,10 +1609,37 @@
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -3778,9 +3817,15 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="11"/>
-      <c r="C262" s="10"/>
-      <c r="D262" s="11"/>
+      <c r="B262" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="E262" s="11"/>
       <c r="F262" s="10"/>
     </row>
@@ -3788,9 +3833,15 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="11"/>
-      <c r="C263" s="10"/>
-      <c r="D263" s="11"/>
+      <c r="B263" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="E263" s="11"/>
       <c r="F263" s="10"/>
     </row>
@@ -3798,9 +3849,15 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="11"/>
-      <c r="C264" s="10"/>
-      <c r="D264" s="11"/>
+      <c r="B264" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E264" s="11"/>
       <c r="F264" s="10"/>
     </row>
@@ -3808,9 +3865,15 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="11"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="11"/>
+      <c r="B265" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E265" s="11"/>
       <c r="F265" s="10"/>
     </row>
@@ -5518,8 +5581,12 @@
       <c r="B462" t="s">
         <v>21</v>
       </c>
-      <c r="C462" s="10"/>
-      <c r="D462" s="11"/>
+      <c r="C462" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D462" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="E462" s="11"/>
       <c r="F462" s="10"/>
     </row>
@@ -5530,8 +5597,12 @@
       <c r="B463" t="s">
         <v>21</v>
       </c>
-      <c r="C463" s="10"/>
-      <c r="D463" s="11"/>
+      <c r="C463" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D463" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="E463" s="11"/>
       <c r="F463" s="10"/>
     </row>
@@ -5542,8 +5613,12 @@
       <c r="B464" t="s">
         <v>21</v>
       </c>
-      <c r="C464" s="10"/>
-      <c r="D464" s="11"/>
+      <c r="C464" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D464" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E464" s="11"/>
       <c r="F464" s="10"/>
     </row>
@@ -5554,8 +5629,12 @@
       <c r="B465" t="s">
         <v>21</v>
       </c>
-      <c r="C465" s="10"/>
-      <c r="D465" s="11"/>
+      <c r="C465" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D465" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E465" s="11"/>
       <c r="F465" s="10"/>
     </row>

--- a/Documentation/MetIDs.xlsx
+++ b/Documentation/MetIDs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3B4760-D9E3-4D15-8C73-93255B8C858D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E342E074-7201-424F-AFE4-0D6A5F889F31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8263" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="125">
   <si>
     <t>NetID</t>
   </si>
@@ -371,6 +371,30 @@
   </si>
   <si>
     <t>Shot Spawn Right</t>
+  </si>
+  <si>
+    <t>Transport(Ship)_1(2)/(Right Turret)</t>
+  </si>
+  <si>
+    <t>Transport(Ship)_1 (1)/(Right Turret)</t>
+  </si>
+  <si>
+    <t>Transport(Ship)_1 (2)/(RIght Turret)</t>
+  </si>
+  <si>
+    <t>Com</t>
+  </si>
+  <si>
+    <t>Com_Controller</t>
+  </si>
+  <si>
+    <t>SRR-3</t>
+  </si>
+  <si>
+    <t>Player (6)</t>
+  </si>
+  <si>
+    <t>Player (7)</t>
   </si>
 </sst>
 </file>
@@ -750,31 +774,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" customWidth="1"/>
-    <col min="4" max="4" width="26.90625" customWidth="1"/>
-    <col min="5" max="5" width="25.90625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" customWidth="1"/>
-    <col min="10" max="10" width="17.08984375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" customWidth="1"/>
-    <col min="13" max="13" width="12.7265625" customWidth="1"/>
-    <col min="14" max="14" width="19.36328125" customWidth="1"/>
-    <col min="15" max="15" width="17.08984375" customWidth="1"/>
-    <col min="16" max="16" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.84375" customWidth="1"/>
+    <col min="3" max="3" width="28.07421875" customWidth="1"/>
+    <col min="4" max="4" width="26.921875" customWidth="1"/>
+    <col min="5" max="5" width="25.921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.23046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.921875" customWidth="1"/>
+    <col min="8" max="8" width="18.61328125" customWidth="1"/>
+    <col min="9" max="9" width="18.23046875" customWidth="1"/>
+    <col min="10" max="10" width="17.07421875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.07421875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.69140625" customWidth="1"/>
+    <col min="13" max="13" width="12.69140625" customWidth="1"/>
+    <col min="14" max="14" width="19.3828125" customWidth="1"/>
+    <col min="15" max="15" width="17.07421875" customWidth="1"/>
+    <col min="16" max="16" width="11.921875" customWidth="1"/>
+    <col min="41" max="41" width="10.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -913,12 +938,25 @@
       <c r="AT1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="3"/>
+      <c r="AU1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="BC1" s="2"/>
       <c r="BD1" s="3"/>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -971,7 +1009,7 @@
         <v>5000</v>
       </c>
       <c r="AC2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="1" t="s">
@@ -981,7 +1019,7 @@
         <v>6000</v>
       </c>
       <c r="AH2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="1" t="s">
@@ -991,23 +1029,31 @@
         <v>7000</v>
       </c>
       <c r="AM2" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AO2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AP2">
+        <v>8000</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU2">
         <v>33000</v>
       </c>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="1"/>
       <c r="AX2" s="2"/>
       <c r="AY2" s="1"/>
       <c r="BC2" s="2"/>
       <c r="BD2" s="1"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1060,7 +1106,7 @@
         <v>5001</v>
       </c>
       <c r="AC3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1" t="s">
@@ -1070,7 +1116,7 @@
         <v>6001</v>
       </c>
       <c r="AH3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="1" t="s">
@@ -1080,23 +1126,31 @@
         <v>7001</v>
       </c>
       <c r="AM3" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AP3">
+        <v>8001</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU3">
         <v>33001</v>
       </c>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="1"/>
       <c r="AX3" s="2"/>
       <c r="AY3" s="1"/>
       <c r="BC3" s="2"/>
       <c r="BD3" s="1"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1109,8 +1163,10 @@
       <c r="F4" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="1"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1123,8 +1179,10 @@
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="1"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1132,27 +1190,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1166,7 +1224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1180,7 +1238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1194,7 +1252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1208,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1222,7 +1280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1236,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1250,7 +1308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1264,27 +1322,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1298,7 +1356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1312,7 +1370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1326,7 +1384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1340,42 +1398,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1388,7 +1446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1401,7 +1459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1414,7 +1472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1428,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1442,17 +1500,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1466,7 +1524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1480,7 +1538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1497,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1514,7 +1572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1531,7 +1589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1548,27 +1606,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1585,7 +1643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1605,7 +1663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1622,7 +1680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1642,117 +1700,117 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1762,7 +1820,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1772,7 +1830,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1782,7 +1840,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1792,7 +1850,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1802,7 +1860,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1812,7 +1870,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1822,7 +1880,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1832,7 +1890,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1842,7 +1900,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1852,7 +1910,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1862,7 +1920,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1872,7 +1930,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1882,7 +1940,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1892,7 +1950,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1902,7 +1960,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1912,7 +1970,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -1922,7 +1980,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -1932,7 +1990,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -1942,7 +2000,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -1952,7 +2010,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -1962,7 +2020,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -1972,7 +2030,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -1982,7 +2040,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -2002,7 +2060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -2022,7 +2080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -2042,7 +2100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -2062,7 +2120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -2082,7 +2140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -2102,7 +2160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -2122,7 +2180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -2142,7 +2200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -2162,7 +2220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -2182,7 +2240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -2202,7 +2260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -2222,7 +2280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -2242,7 +2300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -2262,7 +2320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -2282,7 +2340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -2302,7 +2360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -2320,7 +2378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -2340,7 +2398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -2360,7 +2418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2380,7 +2438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2400,47 +2458,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="10"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B121" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="10"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B122" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="11"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="10"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B123" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="10"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B124" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2449,7 +2547,7 @@
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2458,7 +2556,7 @@
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2467,7 +2565,7 @@
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2476,7 +2574,7 @@
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2485,7 +2583,7 @@
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2493,7 +2591,7 @@
       <c r="C130" s="13"/>
       <c r="D130" s="12"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2501,7 +2599,7 @@
       <c r="C131" s="13"/>
       <c r="D131" s="12"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2518,7 +2616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2535,7 +2633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2552,7 +2650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2569,7 +2667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2577,7 +2675,7 @@
       <c r="C136" s="13"/>
       <c r="D136" s="12"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2585,7 +2683,7 @@
       <c r="C137" s="13"/>
       <c r="D137" s="12"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2593,7 +2691,7 @@
       <c r="C138" s="13"/>
       <c r="D138" s="12"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2601,12 +2699,12 @@
       <c r="C139" s="13"/>
       <c r="D139" s="12"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2623,7 +2721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2640,7 +2738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2657,7 +2755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2674,7 +2772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2691,7 +2789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2708,7 +2806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2725,7 +2823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2742,267 +2840,267 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3013,7 +3111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3033,7 +3131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3053,7 +3151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3073,7 +3171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3093,7 +3191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3113,7 +3211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3133,7 +3231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3153,7 +3251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3173,7 +3271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3193,7 +3291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3201,7 +3299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -3221,7 +3319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -3235,7 +3333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -3255,7 +3353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -3275,7 +3373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -3295,7 +3393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -3315,7 +3413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -3325,7 +3423,7 @@
       <c r="E218" s="5"/>
       <c r="F218" s="6"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -3335,7 +3433,7 @@
       <c r="E219" s="5"/>
       <c r="F219" s="6"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -3345,7 +3443,7 @@
       <c r="E220" s="5"/>
       <c r="F220" s="6"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -3355,7 +3453,7 @@
       <c r="E221" s="5"/>
       <c r="F221" s="6"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -3365,7 +3463,7 @@
       <c r="E222" s="5"/>
       <c r="F222" s="6"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -3375,7 +3473,7 @@
       <c r="E223" s="5"/>
       <c r="F223" s="6"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -3385,7 +3483,7 @@
       <c r="E224" s="5"/>
       <c r="F224" s="6"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -3395,7 +3493,7 @@
       <c r="E225" s="5"/>
       <c r="F225" s="6"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -3405,7 +3503,7 @@
       <c r="E226" s="5"/>
       <c r="F226" s="6"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -3415,7 +3513,7 @@
       <c r="E227" s="5"/>
       <c r="F227" s="6"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -3425,7 +3523,7 @@
       <c r="E228" s="5"/>
       <c r="F228" s="6"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -3435,7 +3533,7 @@
       <c r="E229" s="5"/>
       <c r="F229" s="6"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -3445,7 +3543,7 @@
       <c r="E230" s="5"/>
       <c r="F230" s="6"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -3455,7 +3553,7 @@
       <c r="E231" s="5"/>
       <c r="F231" s="6"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -3465,7 +3563,7 @@
       <c r="E232" s="5"/>
       <c r="F232" s="6"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -3475,7 +3573,7 @@
       <c r="E233" s="5"/>
       <c r="F233" s="6"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -3493,7 +3591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -3513,7 +3611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -3531,7 +3629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -3549,7 +3647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -3567,7 +3665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
@@ -3585,7 +3683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -3603,7 +3701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
@@ -3613,7 +3711,7 @@
       <c r="E241" s="11"/>
       <c r="F241" s="10"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -3623,7 +3721,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="10"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -3633,7 +3731,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -3643,7 +3741,7 @@
       <c r="E244" s="11"/>
       <c r="F244" s="10"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
@@ -3653,7 +3751,7 @@
       <c r="E245" s="11"/>
       <c r="F245" s="10"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
@@ -3663,7 +3761,7 @@
       <c r="E246" s="11"/>
       <c r="F246" s="10"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
@@ -3673,7 +3771,7 @@
       <c r="E247" s="11"/>
       <c r="F247" s="10"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
@@ -3683,7 +3781,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="10"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
@@ -3693,7 +3791,7 @@
       <c r="E249" s="11"/>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
@@ -3703,7 +3801,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="10"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
@@ -3713,7 +3811,7 @@
       <c r="E251" s="11"/>
       <c r="F251" s="10"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
@@ -3723,7 +3821,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="10"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
@@ -3733,7 +3831,7 @@
       <c r="E253" s="11"/>
       <c r="F253" s="10"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
@@ -3743,7 +3841,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="10"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
@@ -3753,7 +3851,7 @@
       <c r="E255" s="11"/>
       <c r="F255" s="10"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
@@ -3763,7 +3861,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="10"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
@@ -3773,7 +3871,7 @@
       <c r="E257" s="11"/>
       <c r="F257" s="10"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
@@ -3783,7 +3881,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="10"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
@@ -3793,7 +3891,7 @@
       <c r="E259" s="11"/>
       <c r="F259" s="10"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
@@ -3803,7 +3901,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="10"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
@@ -3813,7 +3911,7 @@
       <c r="E261" s="11"/>
       <c r="F261" s="10"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
@@ -3829,7 +3927,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="10"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
@@ -3845,7 +3943,7 @@
       <c r="E263" s="11"/>
       <c r="F263" s="10"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
@@ -3861,7 +3959,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="10"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
@@ -3877,7 +3975,7 @@
       <c r="E265" s="11"/>
       <c r="F265" s="10"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>265</v>
       </c>
@@ -3897,7 +3995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>266</v>
       </c>
@@ -3906,7 +4004,7 @@
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
@@ -3926,7 +4024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>268</v>
       </c>
@@ -3935,7 +4033,7 @@
       <c r="D269" s="12"/>
       <c r="E269" s="12"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
@@ -3955,7 +4053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>270</v>
       </c>
@@ -3972,7 +4070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>271</v>
       </c>
@@ -3989,7 +4087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>272</v>
       </c>
@@ -3997,7 +4095,7 @@
       <c r="C273" s="13"/>
       <c r="D273" s="12"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
@@ -4005,7 +4103,7 @@
       <c r="C274" s="13"/>
       <c r="D274" s="12"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>274</v>
       </c>
@@ -4013,7 +4111,7 @@
       <c r="C275" s="13"/>
       <c r="D275" s="12"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>275</v>
       </c>
@@ -4021,7 +4119,7 @@
       <c r="C276" s="13"/>
       <c r="D276" s="12"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
@@ -4038,7 +4136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>277</v>
       </c>
@@ -4055,7 +4153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>278</v>
       </c>
@@ -4072,7 +4170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>279</v>
       </c>
@@ -4089,607 +4187,607 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>400</v>
       </c>
@@ -4700,7 +4798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>401</v>
       </c>
@@ -4720,7 +4818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>402</v>
       </c>
@@ -4740,7 +4838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>403</v>
       </c>
@@ -4760,7 +4858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>404</v>
       </c>
@@ -4780,7 +4878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>405</v>
       </c>
@@ -4800,7 +4898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>406</v>
       </c>
@@ -4820,7 +4918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>407</v>
       </c>
@@ -4840,7 +4938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>408</v>
       </c>
@@ -4860,7 +4958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>409</v>
       </c>
@@ -4880,7 +4978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>410</v>
       </c>
@@ -4888,7 +4986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>411</v>
       </c>
@@ -4908,7 +5006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>412</v>
       </c>
@@ -4922,7 +5020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>413</v>
       </c>
@@ -4942,7 +5040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>414</v>
       </c>
@@ -4962,7 +5060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>415</v>
       </c>
@@ -4982,7 +5080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>416</v>
       </c>
@@ -5002,7 +5100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>417</v>
       </c>
@@ -5014,7 +5112,7 @@
       <c r="E418" s="5"/>
       <c r="F418" s="6"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>418</v>
       </c>
@@ -5026,7 +5124,7 @@
       <c r="E419" s="5"/>
       <c r="F419" s="6"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>419</v>
       </c>
@@ -5038,7 +5136,7 @@
       <c r="E420" s="5"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>420</v>
       </c>
@@ -5050,7 +5148,7 @@
       <c r="E421" s="5"/>
       <c r="F421" s="6"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>421</v>
       </c>
@@ -5062,7 +5160,7 @@
       <c r="E422" s="5"/>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>422</v>
       </c>
@@ -5074,7 +5172,7 @@
       <c r="E423" s="5"/>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>423</v>
       </c>
@@ -5086,7 +5184,7 @@
       <c r="E424" s="5"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>424</v>
       </c>
@@ -5098,7 +5196,7 @@
       <c r="E425" s="5"/>
       <c r="F425" s="6"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>425</v>
       </c>
@@ -5110,7 +5208,7 @@
       <c r="E426" s="5"/>
       <c r="F426" s="6"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>426</v>
       </c>
@@ -5122,7 +5220,7 @@
       <c r="E427" s="5"/>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>427</v>
       </c>
@@ -5134,7 +5232,7 @@
       <c r="E428" s="5"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>428</v>
       </c>
@@ -5146,7 +5244,7 @@
       <c r="E429" s="5"/>
       <c r="F429" s="6"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>429</v>
       </c>
@@ -5158,7 +5256,7 @@
       <c r="E430" s="5"/>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>430</v>
       </c>
@@ -5170,7 +5268,7 @@
       <c r="E431" s="5"/>
       <c r="F431" s="6"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>431</v>
       </c>
@@ -5182,7 +5280,7 @@
       <c r="E432" s="5"/>
       <c r="F432" s="6"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>432</v>
       </c>
@@ -5194,7 +5292,7 @@
       <c r="E433" s="5"/>
       <c r="F433" s="6"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>433</v>
       </c>
@@ -5212,7 +5310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>434</v>
       </c>
@@ -5232,7 +5330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>435</v>
       </c>
@@ -5250,7 +5348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>436</v>
       </c>
@@ -5268,7 +5366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>437</v>
       </c>
@@ -5286,7 +5384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>438</v>
       </c>
@@ -5304,7 +5402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>439</v>
       </c>
@@ -5322,7 +5420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>440</v>
       </c>
@@ -5334,7 +5432,7 @@
       <c r="E441" s="11"/>
       <c r="F441" s="10"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>441</v>
       </c>
@@ -5346,7 +5444,7 @@
       <c r="E442" s="11"/>
       <c r="F442" s="10"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>442</v>
       </c>
@@ -5358,7 +5456,7 @@
       <c r="E443" s="11"/>
       <c r="F443" s="10"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>443</v>
       </c>
@@ -5370,7 +5468,7 @@
       <c r="E444" s="11"/>
       <c r="F444" s="10"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>444</v>
       </c>
@@ -5382,7 +5480,7 @@
       <c r="E445" s="11"/>
       <c r="F445" s="10"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>445</v>
       </c>
@@ -5394,7 +5492,7 @@
       <c r="E446" s="11"/>
       <c r="F446" s="10"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>446</v>
       </c>
@@ -5406,7 +5504,7 @@
       <c r="E447" s="11"/>
       <c r="F447" s="10"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>447</v>
       </c>
@@ -5418,7 +5516,7 @@
       <c r="E448" s="11"/>
       <c r="F448" s="10"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>448</v>
       </c>
@@ -5430,7 +5528,7 @@
       <c r="E449" s="11"/>
       <c r="F449" s="10"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>449</v>
       </c>
@@ -5442,7 +5540,7 @@
       <c r="E450" s="11"/>
       <c r="F450" s="10"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>450</v>
       </c>
@@ -5454,7 +5552,7 @@
       <c r="E451" s="11"/>
       <c r="F451" s="10"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>451</v>
       </c>
@@ -5466,7 +5564,7 @@
       <c r="E452" s="11"/>
       <c r="F452" s="10"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>452</v>
       </c>
@@ -5478,7 +5576,7 @@
       <c r="E453" s="11"/>
       <c r="F453" s="10"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>453</v>
       </c>
@@ -5490,7 +5588,7 @@
       <c r="E454" s="11"/>
       <c r="F454" s="10"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>454</v>
       </c>
@@ -5502,7 +5600,7 @@
       <c r="E455" s="11"/>
       <c r="F455" s="10"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>455</v>
       </c>
@@ -5514,7 +5612,7 @@
       <c r="E456" s="11"/>
       <c r="F456" s="10"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>456</v>
       </c>
@@ -5526,7 +5624,7 @@
       <c r="E457" s="11"/>
       <c r="F457" s="10"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>457</v>
       </c>
@@ -5538,7 +5636,7 @@
       <c r="E458" s="11"/>
       <c r="F458" s="10"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>458</v>
       </c>
@@ -5550,7 +5648,7 @@
       <c r="E459" s="11"/>
       <c r="F459" s="10"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>459</v>
       </c>
@@ -5562,7 +5660,7 @@
       <c r="E460" s="11"/>
       <c r="F460" s="10"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>460</v>
       </c>
@@ -5574,7 +5672,7 @@
       <c r="E461" s="11"/>
       <c r="F461" s="10"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>461</v>
       </c>
@@ -5590,7 +5688,7 @@
       <c r="E462" s="11"/>
       <c r="F462" s="10"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>462</v>
       </c>
@@ -5606,7 +5704,7 @@
       <c r="E463" s="11"/>
       <c r="F463" s="10"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>463</v>
       </c>
@@ -5622,7 +5720,7 @@
       <c r="E464" s="11"/>
       <c r="F464" s="10"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>464</v>
       </c>
@@ -5638,7 +5736,7 @@
       <c r="E465" s="11"/>
       <c r="F465" s="10"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>465</v>
       </c>
@@ -5658,7 +5756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>466</v>
       </c>
@@ -5669,7 +5767,7 @@
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>467</v>
       </c>
@@ -5689,7 +5787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>468</v>
       </c>
@@ -5700,7 +5798,7 @@
       <c r="D469" s="12"/>
       <c r="E469" s="12"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>469</v>
       </c>
@@ -5720,7 +5818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>470</v>
       </c>
@@ -5737,7 +5835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>471</v>
       </c>
@@ -5754,7 +5852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>472</v>
       </c>
@@ -5764,7 +5862,7 @@
       <c r="C473" s="13"/>
       <c r="D473" s="12"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>473</v>
       </c>
@@ -5774,7 +5872,7 @@
       <c r="C474" s="13"/>
       <c r="D474" s="12"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>474</v>
       </c>
@@ -5784,7 +5882,7 @@
       <c r="C475" s="13"/>
       <c r="D475" s="12"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>475</v>
       </c>
@@ -5794,7 +5892,7 @@
       <c r="C476" s="13"/>
       <c r="D476" s="12"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>476</v>
       </c>
@@ -5811,7 +5909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>477</v>
       </c>
@@ -5828,7 +5926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>478</v>
       </c>
@@ -5845,7 +5943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>479</v>
       </c>
@@ -5862,607 +5960,607 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>600</v>
       </c>
@@ -6479,7 +6577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>601</v>
       </c>
@@ -6496,7 +6594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>602</v>
       </c>
@@ -6513,7 +6611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A604">
         <v>603</v>
       </c>
@@ -6530,7 +6628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>604</v>
       </c>
@@ -6547,32 +6645,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A606">
         <v>605</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>606</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A608">
         <v>607</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>608</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A610">
         <v>609</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>610</v>
       </c>
@@ -6586,7 +6684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A612">
         <v>611</v>
       </c>
@@ -6600,7 +6698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>612</v>
       </c>
@@ -6614,7 +6712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A614">
         <v>613</v>
       </c>
@@ -6628,7 +6726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>614</v>
       </c>
@@ -6642,7 +6740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A616">
         <v>615</v>
       </c>
@@ -6656,1922 +6754,1946 @@
         <v>7</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>616</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A618">
         <v>617</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>618</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A620">
         <v>619</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>620</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A622">
         <v>621</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>622</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A624">
         <v>623</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>624</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A626">
         <v>625</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>626</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A628">
         <v>627</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>628</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A630">
         <v>629</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>630</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A632">
         <v>631</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>632</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A634">
         <v>633</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>634</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A636">
         <v>635</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>636</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A638">
         <v>637</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>638</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A640">
         <v>639</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>640</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A642">
         <v>641</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>642</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A644">
         <v>643</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>644</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A646">
         <v>645</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>646</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A648">
         <v>647</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>648</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A650">
         <v>649</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>650</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A652">
         <v>651</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>652</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A654">
         <v>653</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>654</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A656">
         <v>655</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>656</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A658">
         <v>657</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>658</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A660">
         <v>659</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A661">
         <v>660</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A662">
         <v>661</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A663">
         <v>662</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A664">
         <v>663</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A665">
         <v>664</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A666">
         <v>665</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A667">
         <v>666</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A668">
         <v>667</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A669">
         <v>668</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A670">
         <v>669</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A671">
         <v>670</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A672">
         <v>671</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A673">
         <v>672</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A674">
         <v>673</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A675">
         <v>674</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A676">
         <v>675</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A677">
         <v>676</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A678">
         <v>677</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A679">
         <v>678</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A680">
         <v>679</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A681">
         <v>680</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A682">
         <v>681</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A683">
         <v>682</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A684">
         <v>683</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A685">
         <v>684</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A686">
         <v>685</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A687">
         <v>686</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A688">
         <v>687</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>688</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A690">
         <v>689</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>690</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A692">
         <v>691</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>692</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A694">
         <v>693</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A695">
         <v>694</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A696">
         <v>695</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A697">
         <v>696</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A698">
         <v>697</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A699">
         <v>698</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A700">
         <v>699</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A701">
         <v>700</v>
       </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C701" t="s">
+        <v>120</v>
+      </c>
+      <c r="D701" t="s">
+        <v>120</v>
+      </c>
+      <c r="E701" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A702">
         <v>701</v>
       </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C702" t="s">
+        <v>120</v>
+      </c>
+      <c r="D702" t="s">
+        <v>122</v>
+      </c>
+      <c r="E702" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A703">
         <v>702</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A704">
         <v>703</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A705">
         <v>704</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A706">
         <v>705</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A707">
         <v>706</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A708">
         <v>707</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A709">
         <v>708</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A710">
         <v>709</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A711">
         <v>710</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A712">
         <v>711</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A713">
         <v>712</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A714">
         <v>713</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A715">
         <v>714</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A716">
         <v>715</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A717">
         <v>716</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A718">
         <v>717</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A719">
         <v>718</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A720">
         <v>719</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A721">
         <v>720</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A722">
         <v>721</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A723">
         <v>722</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A724">
         <v>723</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A725">
         <v>724</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A726">
         <v>725</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A727">
         <v>726</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A728">
         <v>727</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A729">
         <v>728</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A730">
         <v>729</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A731">
         <v>730</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A732">
         <v>731</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A733">
         <v>732</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A734">
         <v>733</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A735">
         <v>734</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A736">
         <v>735</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A737">
         <v>736</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A738">
         <v>737</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A739">
         <v>738</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A740">
         <v>739</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A741">
         <v>740</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A742">
         <v>741</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A743">
         <v>742</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A744">
         <v>743</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A745">
         <v>744</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A746">
         <v>745</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A747">
         <v>746</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A748">
         <v>747</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A749">
         <v>748</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A750">
         <v>749</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A751">
         <v>750</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A752">
         <v>751</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A753">
         <v>752</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A754">
         <v>753</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A755">
         <v>754</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A756">
         <v>755</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A757">
         <v>756</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A758">
         <v>757</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A759">
         <v>758</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A760">
         <v>759</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A761">
         <v>760</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A762">
         <v>761</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A763">
         <v>762</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A764">
         <v>763</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A765">
         <v>764</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A766">
         <v>765</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A767">
         <v>766</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A768">
         <v>767</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A769">
         <v>768</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A770">
         <v>769</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A771">
         <v>770</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A772">
         <v>771</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A773">
         <v>772</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A774">
         <v>773</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A775">
         <v>774</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A776">
         <v>775</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A777">
         <v>776</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A778">
         <v>777</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A779">
         <v>778</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A780">
         <v>779</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A781">
         <v>780</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A782">
         <v>781</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A783">
         <v>782</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A784">
         <v>783</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A785">
         <v>784</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A786">
         <v>785</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A787">
         <v>786</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A788">
         <v>787</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A789">
         <v>788</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A790">
         <v>789</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A791">
         <v>790</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A792">
         <v>791</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A793">
         <v>792</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A794">
         <v>793</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A795">
         <v>794</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A796">
         <v>795</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A797">
         <v>796</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A798">
         <v>797</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A799">
         <v>798</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A800">
         <v>799</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A801">
         <v>800</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A802">
         <v>801</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A803">
         <v>802</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A804">
         <v>803</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A805">
         <v>804</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A806">
         <v>805</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A807">
         <v>806</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A808">
         <v>807</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A809">
         <v>808</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A810">
         <v>809</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A811">
         <v>810</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A812">
         <v>811</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A813">
         <v>812</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A814">
         <v>813</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A815">
         <v>814</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A816">
         <v>815</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A817">
         <v>816</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A818">
         <v>817</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A819">
         <v>818</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A820">
         <v>819</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A821">
         <v>820</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A822">
         <v>821</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A823">
         <v>822</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A824">
         <v>823</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A825">
         <v>824</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A826">
         <v>825</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A827">
         <v>826</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A828">
         <v>827</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A829">
         <v>828</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A830">
         <v>829</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A831">
         <v>830</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A832">
         <v>831</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A833">
         <v>832</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A834">
         <v>833</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A835">
         <v>834</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A836">
         <v>835</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A837">
         <v>836</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A838">
         <v>837</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A839">
         <v>838</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A840">
         <v>839</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A841">
         <v>840</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A842">
         <v>841</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A843">
         <v>842</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A844">
         <v>843</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A845">
         <v>844</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A846">
         <v>845</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A847">
         <v>846</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A848">
         <v>847</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A849">
         <v>848</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A850">
         <v>849</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A851">
         <v>850</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A852">
         <v>851</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A853">
         <v>852</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A854">
         <v>853</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A855">
         <v>854</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A856">
         <v>855</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A857">
         <v>856</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A858">
         <v>857</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A859">
         <v>858</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A860">
         <v>859</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A861">
         <v>860</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A862">
         <v>861</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A863">
         <v>862</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A864">
         <v>863</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A865">
         <v>864</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A866">
         <v>865</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A867">
         <v>866</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A868">
         <v>867</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A869">
         <v>868</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A870">
         <v>869</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A871">
         <v>870</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A872">
         <v>871</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A873">
         <v>872</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A874">
         <v>873</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A875">
         <v>874</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A876">
         <v>875</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A877">
         <v>876</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A878">
         <v>877</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A879">
         <v>878</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A880">
         <v>879</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A881">
         <v>880</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A882">
         <v>881</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A883">
         <v>882</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A884">
         <v>883</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A885">
         <v>884</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A886">
         <v>885</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A887">
         <v>886</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A888">
         <v>887</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A889">
         <v>888</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A890">
         <v>889</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A891">
         <v>890</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A892">
         <v>891</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A893">
         <v>892</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A894">
         <v>893</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A895">
         <v>894</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A896">
         <v>895</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A897">
         <v>896</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A898">
         <v>897</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A899">
         <v>898</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A900">
         <v>899</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A901">
         <v>900</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A902">
         <v>901</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A903">
         <v>902</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A904">
         <v>903</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A905">
         <v>904</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A906">
         <v>905</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A907">
         <v>906</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A908">
         <v>907</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A909">
         <v>908</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A910">
         <v>909</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A911">
         <v>910</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A912">
         <v>911</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A913">
         <v>912</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A914">
         <v>913</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A915">
         <v>914</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A916">
         <v>915</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A917">
         <v>916</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A918">
         <v>917</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A919">
         <v>918</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A920">
         <v>919</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A921">
         <v>920</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A922">
         <v>921</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A923">
         <v>922</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A924">
         <v>923</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A925">
         <v>924</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A926">
         <v>925</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A927">
         <v>926</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A928">
         <v>927</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A929">
         <v>928</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A930">
         <v>929</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A931">
         <v>930</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A932">
         <v>931</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A933">
         <v>932</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A934">
         <v>933</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A935">
         <v>934</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A936">
         <v>935</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A937">
         <v>936</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A938">
         <v>937</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A939">
         <v>938</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A940">
         <v>939</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A941">
         <v>940</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A942">
         <v>941</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A943">
         <v>942</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A944">
         <v>943</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A945">
         <v>944</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A946">
         <v>945</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A947">
         <v>946</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A948">
         <v>947</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A949">
         <v>948</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A950">
         <v>949</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A951">
         <v>950</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A952">
         <v>951</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A953">
         <v>952</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A954">
         <v>953</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A955">
         <v>954</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A956">
         <v>955</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A957">
         <v>956</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A958">
         <v>957</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A959">
         <v>958</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A960">
         <v>959</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A961">
         <v>960</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A962">
         <v>961</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A963">
         <v>962</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A964">
         <v>963</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A965">
         <v>964</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A966">
         <v>965</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A967">
         <v>966</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A968">
         <v>967</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A969">
         <v>968</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A970">
         <v>969</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A971">
         <v>970</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A972">
         <v>971</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A973">
         <v>972</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A974">
         <v>973</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A975">
         <v>974</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A976">
         <v>975</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A977">
         <v>976</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A978">
         <v>977</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A979">
         <v>978</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A980">
         <v>979</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A981">
         <v>980</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A982">
         <v>981</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A983">
         <v>982</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A984">
         <v>983</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A985">
         <v>984</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A986">
         <v>985</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A987">
         <v>986</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A988">
         <v>987</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A989">
         <v>988</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A990">
         <v>989</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A991">
         <v>990</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A992">
         <v>991</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A993">
         <v>992</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A994">
         <v>993</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A995">
         <v>994</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A996">
         <v>995</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A997">
         <v>996</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A998">
         <v>997</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A999">
         <v>998</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1000">
         <v>999</v>
       </c>

--- a/Documentation/MetIDs.xlsx
+++ b/Documentation/MetIDs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E342E074-7201-424F-AFE4-0D6A5F889F31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4CA36C-8F7E-4EE0-911D-B84D835B0CDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8263" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="127">
   <si>
     <t>NetID</t>
   </si>
@@ -395,6 +395,12 @@
   </si>
   <si>
     <t>Player (7)</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
+    <t>Games</t>
   </si>
 </sst>
 </file>
@@ -774,9 +780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR4" sqref="AR4"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3705,11 +3711,21 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
-      <c r="D241" s="11"/>
-      <c r="E241" s="11"/>
-      <c r="F241" s="10"/>
+      <c r="B241" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242">
@@ -5424,13 +5440,21 @@
       <c r="A441">
         <v>440</v>
       </c>
-      <c r="B441" t="s">
-        <v>21</v>
-      </c>
-      <c r="C441" s="11"/>
-      <c r="D441" s="11"/>
-      <c r="E441" s="11"/>
-      <c r="F441" s="10"/>
+      <c r="B441" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C441" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D441" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E441" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F441" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442">

--- a/Documentation/MetIDs.xlsx
+++ b/Documentation/MetIDs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3754A50-C1F1-4592-BC63-3A7523724B7B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4CA36C-8F7E-4EE0-911D-B84D835B0CDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8263" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="127">
   <si>
     <t>NetID</t>
   </si>
@@ -359,6 +359,48 @@
   </si>
   <si>
     <t>Flight Ring Controller</t>
+  </si>
+  <si>
+    <t>Turret Left</t>
+  </si>
+  <si>
+    <t>Shot Spawn Left</t>
+  </si>
+  <si>
+    <t>Turret Right</t>
+  </si>
+  <si>
+    <t>Shot Spawn Right</t>
+  </si>
+  <si>
+    <t>Transport(Ship)_1(2)/(Right Turret)</t>
+  </si>
+  <si>
+    <t>Transport(Ship)_1 (1)/(Right Turret)</t>
+  </si>
+  <si>
+    <t>Transport(Ship)_1 (2)/(RIght Turret)</t>
+  </si>
+  <si>
+    <t>Com</t>
+  </si>
+  <si>
+    <t>Com_Controller</t>
+  </si>
+  <si>
+    <t>SRR-3</t>
+  </si>
+  <si>
+    <t>Player (6)</t>
+  </si>
+  <si>
+    <t>Player (7)</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
+    <t>Games</t>
   </si>
 </sst>
 </file>
@@ -739,30 +781,31 @@
   <dimension ref="A1:BD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
+      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" customWidth="1"/>
-    <col min="4" max="4" width="26.90625" customWidth="1"/>
-    <col min="5" max="5" width="25.90625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" customWidth="1"/>
-    <col min="10" max="10" width="17.08984375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" customWidth="1"/>
-    <col min="13" max="13" width="12.7265625" customWidth="1"/>
-    <col min="14" max="14" width="19.36328125" customWidth="1"/>
-    <col min="15" max="15" width="17.08984375" customWidth="1"/>
-    <col min="16" max="16" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.84375" customWidth="1"/>
+    <col min="3" max="3" width="28.07421875" customWidth="1"/>
+    <col min="4" max="4" width="26.921875" customWidth="1"/>
+    <col min="5" max="5" width="25.921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.23046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.921875" customWidth="1"/>
+    <col min="8" max="8" width="18.61328125" customWidth="1"/>
+    <col min="9" max="9" width="18.23046875" customWidth="1"/>
+    <col min="10" max="10" width="17.07421875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.07421875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.69140625" customWidth="1"/>
+    <col min="13" max="13" width="12.69140625" customWidth="1"/>
+    <col min="14" max="14" width="19.3828125" customWidth="1"/>
+    <col min="15" max="15" width="17.07421875" customWidth="1"/>
+    <col min="16" max="16" width="11.921875" customWidth="1"/>
+    <col min="41" max="41" width="10.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -901,12 +944,25 @@
       <c r="AT1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="3"/>
+      <c r="AU1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="BC1" s="2"/>
       <c r="BD1" s="3"/>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -959,7 +1015,7 @@
         <v>5000</v>
       </c>
       <c r="AC2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="1" t="s">
@@ -969,7 +1025,7 @@
         <v>6000</v>
       </c>
       <c r="AH2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="1" t="s">
@@ -979,23 +1035,31 @@
         <v>7000</v>
       </c>
       <c r="AM2" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AO2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AP2">
+        <v>8000</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU2">
         <v>33000</v>
       </c>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="1"/>
       <c r="AX2" s="2"/>
       <c r="AY2" s="1"/>
       <c r="BC2" s="2"/>
       <c r="BD2" s="1"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1048,7 +1112,7 @@
         <v>5001</v>
       </c>
       <c r="AC3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1" t="s">
@@ -1058,7 +1122,7 @@
         <v>6001</v>
       </c>
       <c r="AH3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="1" t="s">
@@ -1068,23 +1132,31 @@
         <v>7001</v>
       </c>
       <c r="AM3" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AP3">
+        <v>8001</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU3">
         <v>33001</v>
       </c>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="1"/>
       <c r="AX3" s="2"/>
       <c r="AY3" s="1"/>
       <c r="BC3" s="2"/>
       <c r="BD3" s="1"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1097,8 +1169,10 @@
       <c r="F4" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="1"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1111,8 +1185,10 @@
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="1"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1120,27 +1196,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1154,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1168,7 +1244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1182,7 +1258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1196,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1210,7 +1286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1224,7 +1300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1238,7 +1314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1252,27 +1328,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1286,7 +1362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1300,7 +1376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1314,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1328,42 +1404,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1376,7 +1452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1389,7 +1465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1402,7 +1478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1416,7 +1492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1430,17 +1506,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1454,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1468,7 +1544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1485,7 +1561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1502,7 +1578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1519,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1536,27 +1612,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1573,7 +1649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1593,127 +1669,154 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1723,7 +1826,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1733,7 +1836,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1743,7 +1846,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1753,7 +1856,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1763,7 +1866,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1773,7 +1876,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1783,7 +1886,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1793,7 +1896,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1803,7 +1906,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1813,7 +1916,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1823,7 +1926,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1833,7 +1936,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1843,7 +1946,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1853,7 +1956,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1863,7 +1966,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1873,7 +1976,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -1883,7 +1986,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -1893,7 +1996,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -1903,7 +2006,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -1913,7 +2016,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -1923,7 +2026,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -1933,7 +2036,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -1943,7 +2046,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -1963,7 +2066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -1983,7 +2086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -2003,7 +2106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -2023,7 +2126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -2043,7 +2146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -2063,7 +2166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -2083,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -2103,7 +2206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -2123,7 +2226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -2143,7 +2246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -2163,7 +2266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -2183,7 +2286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -2203,7 +2306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -2223,7 +2326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -2243,7 +2346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -2263,7 +2366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -2281,7 +2384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -2301,7 +2404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -2321,7 +2424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2341,7 +2444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2361,47 +2464,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="10"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B121" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="10"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B122" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="11"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="10"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B123" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="10"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B124" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2410,7 +2553,7 @@
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2419,7 +2562,7 @@
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2428,7 +2571,7 @@
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2437,7 +2580,7 @@
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2446,7 +2589,7 @@
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2454,7 +2597,7 @@
       <c r="C130" s="13"/>
       <c r="D130" s="12"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2462,7 +2605,7 @@
       <c r="C131" s="13"/>
       <c r="D131" s="12"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2479,7 +2622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2496,7 +2639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2513,7 +2656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2530,7 +2673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2538,7 +2681,7 @@
       <c r="C136" s="13"/>
       <c r="D136" s="12"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2546,7 +2689,7 @@
       <c r="C137" s="13"/>
       <c r="D137" s="12"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2554,7 +2697,7 @@
       <c r="C138" s="13"/>
       <c r="D138" s="12"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2562,12 +2705,12 @@
       <c r="C139" s="13"/>
       <c r="D139" s="12"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2584,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2601,7 +2744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2618,7 +2761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2635,7 +2778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2652,7 +2795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2669,7 +2812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2686,7 +2829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2703,267 +2846,267 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -2974,7 +3117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -2994,7 +3137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3014,7 +3157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3034,7 +3177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3054,7 +3197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3074,7 +3217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3094,7 +3237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3114,7 +3257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3134,7 +3277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3154,7 +3297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3162,7 +3305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -3182,7 +3325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -3196,7 +3339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -3216,7 +3359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -3236,7 +3379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -3256,7 +3399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -3276,7 +3419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -3286,7 +3429,7 @@
       <c r="E218" s="5"/>
       <c r="F218" s="6"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -3296,7 +3439,7 @@
       <c r="E219" s="5"/>
       <c r="F219" s="6"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -3306,7 +3449,7 @@
       <c r="E220" s="5"/>
       <c r="F220" s="6"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -3316,7 +3459,7 @@
       <c r="E221" s="5"/>
       <c r="F221" s="6"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -3326,7 +3469,7 @@
       <c r="E222" s="5"/>
       <c r="F222" s="6"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -3336,7 +3479,7 @@
       <c r="E223" s="5"/>
       <c r="F223" s="6"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -3346,7 +3489,7 @@
       <c r="E224" s="5"/>
       <c r="F224" s="6"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -3356,7 +3499,7 @@
       <c r="E225" s="5"/>
       <c r="F225" s="6"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -3366,7 +3509,7 @@
       <c r="E226" s="5"/>
       <c r="F226" s="6"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -3376,7 +3519,7 @@
       <c r="E227" s="5"/>
       <c r="F227" s="6"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -3386,7 +3529,7 @@
       <c r="E228" s="5"/>
       <c r="F228" s="6"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -3396,7 +3539,7 @@
       <c r="E229" s="5"/>
       <c r="F229" s="6"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -3406,7 +3549,7 @@
       <c r="E230" s="5"/>
       <c r="F230" s="6"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -3416,7 +3559,7 @@
       <c r="E231" s="5"/>
       <c r="F231" s="6"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -3426,7 +3569,7 @@
       <c r="E232" s="5"/>
       <c r="F232" s="6"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -3436,7 +3579,7 @@
       <c r="E233" s="5"/>
       <c r="F233" s="6"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -3454,7 +3597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -3474,7 +3617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -3492,7 +3635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -3510,7 +3653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -3528,7 +3671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
@@ -3546,7 +3689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -3564,17 +3707,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
-      <c r="D241" s="11"/>
-      <c r="E241" s="11"/>
-      <c r="F241" s="10"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B241" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -3584,7 +3737,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="10"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -3594,7 +3747,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -3604,7 +3757,7 @@
       <c r="E244" s="11"/>
       <c r="F244" s="10"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
@@ -3614,7 +3767,7 @@
       <c r="E245" s="11"/>
       <c r="F245" s="10"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
@@ -3624,7 +3777,7 @@
       <c r="E246" s="11"/>
       <c r="F246" s="10"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
@@ -3634,7 +3787,7 @@
       <c r="E247" s="11"/>
       <c r="F247" s="10"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
@@ -3644,7 +3797,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="10"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
@@ -3654,7 +3807,7 @@
       <c r="E249" s="11"/>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
@@ -3664,7 +3817,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="10"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
@@ -3674,7 +3827,7 @@
       <c r="E251" s="11"/>
       <c r="F251" s="10"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
@@ -3684,7 +3837,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="10"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
@@ -3694,7 +3847,7 @@
       <c r="E253" s="11"/>
       <c r="F253" s="10"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
@@ -3704,7 +3857,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="10"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
@@ -3714,7 +3867,7 @@
       <c r="E255" s="11"/>
       <c r="F255" s="10"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
@@ -3724,7 +3877,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="10"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
@@ -3734,7 +3887,7 @@
       <c r="E257" s="11"/>
       <c r="F257" s="10"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
@@ -3744,7 +3897,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="10"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
@@ -3754,7 +3907,7 @@
       <c r="E259" s="11"/>
       <c r="F259" s="10"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
@@ -3764,7 +3917,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="10"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
@@ -3774,47 +3927,71 @@
       <c r="E261" s="11"/>
       <c r="F261" s="10"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="11"/>
-      <c r="C262" s="10"/>
-      <c r="D262" s="11"/>
+      <c r="B262" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="E262" s="11"/>
       <c r="F262" s="10"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="11"/>
-      <c r="C263" s="10"/>
-      <c r="D263" s="11"/>
+      <c r="B263" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="E263" s="11"/>
       <c r="F263" s="10"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="11"/>
-      <c r="C264" s="10"/>
-      <c r="D264" s="11"/>
+      <c r="B264" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E264" s="11"/>
       <c r="F264" s="10"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="11"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="11"/>
+      <c r="B265" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E265" s="11"/>
       <c r="F265" s="10"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>265</v>
       </c>
@@ -3834,7 +4011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>266</v>
       </c>
@@ -3843,7 +4020,7 @@
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
@@ -3863,7 +4040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>268</v>
       </c>
@@ -3872,7 +4049,7 @@
       <c r="D269" s="12"/>
       <c r="E269" s="12"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
@@ -3892,7 +4069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>270</v>
       </c>
@@ -3909,7 +4086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>271</v>
       </c>
@@ -3926,7 +4103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>272</v>
       </c>
@@ -3934,7 +4111,7 @@
       <c r="C273" s="13"/>
       <c r="D273" s="12"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
@@ -3942,7 +4119,7 @@
       <c r="C274" s="13"/>
       <c r="D274" s="12"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>274</v>
       </c>
@@ -3950,7 +4127,7 @@
       <c r="C275" s="13"/>
       <c r="D275" s="12"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>275</v>
       </c>
@@ -3958,7 +4135,7 @@
       <c r="C276" s="13"/>
       <c r="D276" s="12"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
@@ -3975,7 +4152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>277</v>
       </c>
@@ -3992,7 +4169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>278</v>
       </c>
@@ -4009,7 +4186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>279</v>
       </c>
@@ -4026,607 +4203,607 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>400</v>
       </c>
@@ -4637,7 +4814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>401</v>
       </c>
@@ -4657,7 +4834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>402</v>
       </c>
@@ -4677,7 +4854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>403</v>
       </c>
@@ -4697,7 +4874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>404</v>
       </c>
@@ -4717,7 +4894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>405</v>
       </c>
@@ -4737,7 +4914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>406</v>
       </c>
@@ -4757,7 +4934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>407</v>
       </c>
@@ -4777,7 +4954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>408</v>
       </c>
@@ -4797,7 +4974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>409</v>
       </c>
@@ -4817,7 +4994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>410</v>
       </c>
@@ -4825,7 +5002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>411</v>
       </c>
@@ -4845,7 +5022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>412</v>
       </c>
@@ -4859,7 +5036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>413</v>
       </c>
@@ -4879,7 +5056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>414</v>
       </c>
@@ -4899,7 +5076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>415</v>
       </c>
@@ -4919,7 +5096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>416</v>
       </c>
@@ -4939,7 +5116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>417</v>
       </c>
@@ -4951,7 +5128,7 @@
       <c r="E418" s="5"/>
       <c r="F418" s="6"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>418</v>
       </c>
@@ -4963,7 +5140,7 @@
       <c r="E419" s="5"/>
       <c r="F419" s="6"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>419</v>
       </c>
@@ -4975,7 +5152,7 @@
       <c r="E420" s="5"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>420</v>
       </c>
@@ -4987,7 +5164,7 @@
       <c r="E421" s="5"/>
       <c r="F421" s="6"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>421</v>
       </c>
@@ -4999,7 +5176,7 @@
       <c r="E422" s="5"/>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>422</v>
       </c>
@@ -5011,7 +5188,7 @@
       <c r="E423" s="5"/>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>423</v>
       </c>
@@ -5023,7 +5200,7 @@
       <c r="E424" s="5"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>424</v>
       </c>
@@ -5035,7 +5212,7 @@
       <c r="E425" s="5"/>
       <c r="F425" s="6"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>425</v>
       </c>
@@ -5047,7 +5224,7 @@
       <c r="E426" s="5"/>
       <c r="F426" s="6"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>426</v>
       </c>
@@ -5059,7 +5236,7 @@
       <c r="E427" s="5"/>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>427</v>
       </c>
@@ -5071,7 +5248,7 @@
       <c r="E428" s="5"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>428</v>
       </c>
@@ -5083,7 +5260,7 @@
       <c r="E429" s="5"/>
       <c r="F429" s="6"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>429</v>
       </c>
@@ -5095,7 +5272,7 @@
       <c r="E430" s="5"/>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>430</v>
       </c>
@@ -5107,7 +5284,7 @@
       <c r="E431" s="5"/>
       <c r="F431" s="6"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>431</v>
       </c>
@@ -5119,7 +5296,7 @@
       <c r="E432" s="5"/>
       <c r="F432" s="6"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>432</v>
       </c>
@@ -5131,7 +5308,7 @@
       <c r="E433" s="5"/>
       <c r="F433" s="6"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>433</v>
       </c>
@@ -5149,7 +5326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>434</v>
       </c>
@@ -5169,7 +5346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>435</v>
       </c>
@@ -5187,7 +5364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>436</v>
       </c>
@@ -5205,7 +5382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>437</v>
       </c>
@@ -5223,7 +5400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>438</v>
       </c>
@@ -5241,7 +5418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>439</v>
       </c>
@@ -5259,19 +5436,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>440</v>
       </c>
-      <c r="B441" t="s">
-        <v>21</v>
-      </c>
-      <c r="C441" s="11"/>
-      <c r="D441" s="11"/>
-      <c r="E441" s="11"/>
-      <c r="F441" s="10"/>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B441" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C441" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D441" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E441" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F441" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>441</v>
       </c>
@@ -5283,7 +5468,7 @@
       <c r="E442" s="11"/>
       <c r="F442" s="10"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>442</v>
       </c>
@@ -5295,7 +5480,7 @@
       <c r="E443" s="11"/>
       <c r="F443" s="10"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>443</v>
       </c>
@@ -5307,7 +5492,7 @@
       <c r="E444" s="11"/>
       <c r="F444" s="10"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>444</v>
       </c>
@@ -5319,7 +5504,7 @@
       <c r="E445" s="11"/>
       <c r="F445" s="10"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>445</v>
       </c>
@@ -5331,7 +5516,7 @@
       <c r="E446" s="11"/>
       <c r="F446" s="10"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>446</v>
       </c>
@@ -5343,7 +5528,7 @@
       <c r="E447" s="11"/>
       <c r="F447" s="10"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>447</v>
       </c>
@@ -5355,7 +5540,7 @@
       <c r="E448" s="11"/>
       <c r="F448" s="10"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>448</v>
       </c>
@@ -5367,7 +5552,7 @@
       <c r="E449" s="11"/>
       <c r="F449" s="10"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>449</v>
       </c>
@@ -5379,7 +5564,7 @@
       <c r="E450" s="11"/>
       <c r="F450" s="10"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>450</v>
       </c>
@@ -5391,7 +5576,7 @@
       <c r="E451" s="11"/>
       <c r="F451" s="10"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>451</v>
       </c>
@@ -5403,7 +5588,7 @@
       <c r="E452" s="11"/>
       <c r="F452" s="10"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>452</v>
       </c>
@@ -5415,7 +5600,7 @@
       <c r="E453" s="11"/>
       <c r="F453" s="10"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>453</v>
       </c>
@@ -5427,7 +5612,7 @@
       <c r="E454" s="11"/>
       <c r="F454" s="10"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>454</v>
       </c>
@@ -5439,7 +5624,7 @@
       <c r="E455" s="11"/>
       <c r="F455" s="10"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>455</v>
       </c>
@@ -5451,7 +5636,7 @@
       <c r="E456" s="11"/>
       <c r="F456" s="10"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>456</v>
       </c>
@@ -5463,7 +5648,7 @@
       <c r="E457" s="11"/>
       <c r="F457" s="10"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>457</v>
       </c>
@@ -5475,7 +5660,7 @@
       <c r="E458" s="11"/>
       <c r="F458" s="10"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>458</v>
       </c>
@@ -5487,7 +5672,7 @@
       <c r="E459" s="11"/>
       <c r="F459" s="10"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>459</v>
       </c>
@@ -5499,7 +5684,7 @@
       <c r="E460" s="11"/>
       <c r="F460" s="10"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>460</v>
       </c>
@@ -5511,55 +5696,71 @@
       <c r="E461" s="11"/>
       <c r="F461" s="10"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>461</v>
       </c>
       <c r="B462" t="s">
         <v>21</v>
       </c>
-      <c r="C462" s="10"/>
-      <c r="D462" s="11"/>
+      <c r="C462" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D462" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="E462" s="11"/>
       <c r="F462" s="10"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>462</v>
       </c>
       <c r="B463" t="s">
         <v>21</v>
       </c>
-      <c r="C463" s="10"/>
-      <c r="D463" s="11"/>
+      <c r="C463" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D463" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="E463" s="11"/>
       <c r="F463" s="10"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>463</v>
       </c>
       <c r="B464" t="s">
         <v>21</v>
       </c>
-      <c r="C464" s="10"/>
-      <c r="D464" s="11"/>
+      <c r="C464" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D464" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E464" s="11"/>
       <c r="F464" s="10"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>464</v>
       </c>
       <c r="B465" t="s">
         <v>21</v>
       </c>
-      <c r="C465" s="10"/>
-      <c r="D465" s="11"/>
+      <c r="C465" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D465" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E465" s="11"/>
       <c r="F465" s="10"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>465</v>
       </c>
@@ -5579,7 +5780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>466</v>
       </c>
@@ -5590,7 +5791,7 @@
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>467</v>
       </c>
@@ -5610,7 +5811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>468</v>
       </c>
@@ -5621,7 +5822,7 @@
       <c r="D469" s="12"/>
       <c r="E469" s="12"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>469</v>
       </c>
@@ -5641,7 +5842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>470</v>
       </c>
@@ -5658,7 +5859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>471</v>
       </c>
@@ -5675,7 +5876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>472</v>
       </c>
@@ -5685,7 +5886,7 @@
       <c r="C473" s="13"/>
       <c r="D473" s="12"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>473</v>
       </c>
@@ -5695,7 +5896,7 @@
       <c r="C474" s="13"/>
       <c r="D474" s="12"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>474</v>
       </c>
@@ -5705,7 +5906,7 @@
       <c r="C475" s="13"/>
       <c r="D475" s="12"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>475</v>
       </c>
@@ -5715,7 +5916,7 @@
       <c r="C476" s="13"/>
       <c r="D476" s="12"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>476</v>
       </c>
@@ -5732,7 +5933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>477</v>
       </c>
@@ -5749,7 +5950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>478</v>
       </c>
@@ -5766,7 +5967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>479</v>
       </c>
@@ -5783,607 +5984,607 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>600</v>
       </c>
@@ -6400,7 +6601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>601</v>
       </c>
@@ -6417,7 +6618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>602</v>
       </c>
@@ -6434,7 +6635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A604">
         <v>603</v>
       </c>
@@ -6451,7 +6652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>604</v>
       </c>
@@ -6468,32 +6669,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A606">
         <v>605</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>606</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A608">
         <v>607</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>608</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A610">
         <v>609</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>610</v>
       </c>
@@ -6507,7 +6708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A612">
         <v>611</v>
       </c>
@@ -6521,7 +6722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>612</v>
       </c>
@@ -6535,7 +6736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A614">
         <v>613</v>
       </c>
@@ -6549,7 +6750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>614</v>
       </c>
@@ -6563,7 +6764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A616">
         <v>615</v>
       </c>
@@ -6577,1922 +6778,1946 @@
         <v>7</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>616</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A618">
         <v>617</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>618</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A620">
         <v>619</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>620</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A622">
         <v>621</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>622</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A624">
         <v>623</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>624</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A626">
         <v>625</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>626</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A628">
         <v>627</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>628</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A630">
         <v>629</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>630</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A632">
         <v>631</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>632</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A634">
         <v>633</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>634</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A636">
         <v>635</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>636</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A638">
         <v>637</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>638</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A640">
         <v>639</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>640</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A642">
         <v>641</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>642</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A644">
         <v>643</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>644</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A646">
         <v>645</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>646</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A648">
         <v>647</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>648</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A650">
         <v>649</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>650</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A652">
         <v>651</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>652</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A654">
         <v>653</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>654</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A656">
         <v>655</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>656</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A658">
         <v>657</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>658</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A660">
         <v>659</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A661">
         <v>660</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A662">
         <v>661</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A663">
         <v>662</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A664">
         <v>663</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A665">
         <v>664</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A666">
         <v>665</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A667">
         <v>666</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A668">
         <v>667</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A669">
         <v>668</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A670">
         <v>669</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A671">
         <v>670</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A672">
         <v>671</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A673">
         <v>672</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A674">
         <v>673</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A675">
         <v>674</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A676">
         <v>675</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A677">
         <v>676</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A678">
         <v>677</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A679">
         <v>678</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A680">
         <v>679</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A681">
         <v>680</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A682">
         <v>681</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A683">
         <v>682</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A684">
         <v>683</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A685">
         <v>684</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A686">
         <v>685</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A687">
         <v>686</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A688">
         <v>687</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>688</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A690">
         <v>689</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>690</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A692">
         <v>691</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>692</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A694">
         <v>693</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A695">
         <v>694</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A696">
         <v>695</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A697">
         <v>696</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A698">
         <v>697</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A699">
         <v>698</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A700">
         <v>699</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A701">
         <v>700</v>
       </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C701" t="s">
+        <v>120</v>
+      </c>
+      <c r="D701" t="s">
+        <v>120</v>
+      </c>
+      <c r="E701" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A702">
         <v>701</v>
       </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C702" t="s">
+        <v>120</v>
+      </c>
+      <c r="D702" t="s">
+        <v>122</v>
+      </c>
+      <c r="E702" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A703">
         <v>702</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A704">
         <v>703</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A705">
         <v>704</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A706">
         <v>705</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A707">
         <v>706</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A708">
         <v>707</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A709">
         <v>708</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A710">
         <v>709</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A711">
         <v>710</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A712">
         <v>711</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A713">
         <v>712</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A714">
         <v>713</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A715">
         <v>714</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A716">
         <v>715</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A717">
         <v>716</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A718">
         <v>717</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A719">
         <v>718</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A720">
         <v>719</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A721">
         <v>720</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A722">
         <v>721</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A723">
         <v>722</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A724">
         <v>723</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A725">
         <v>724</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A726">
         <v>725</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A727">
         <v>726</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A728">
         <v>727</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A729">
         <v>728</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A730">
         <v>729</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A731">
         <v>730</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A732">
         <v>731</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A733">
         <v>732</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A734">
         <v>733</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A735">
         <v>734</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A736">
         <v>735</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A737">
         <v>736</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A738">
         <v>737</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A739">
         <v>738</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A740">
         <v>739</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A741">
         <v>740</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A742">
         <v>741</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A743">
         <v>742</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A744">
         <v>743</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A745">
         <v>744</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A746">
         <v>745</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A747">
         <v>746</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A748">
         <v>747</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A749">
         <v>748</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A750">
         <v>749</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A751">
         <v>750</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A752">
         <v>751</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A753">
         <v>752</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A754">
         <v>753</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A755">
         <v>754</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A756">
         <v>755</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A757">
         <v>756</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A758">
         <v>757</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A759">
         <v>758</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A760">
         <v>759</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A761">
         <v>760</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A762">
         <v>761</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A763">
         <v>762</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A764">
         <v>763</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A765">
         <v>764</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A766">
         <v>765</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A767">
         <v>766</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A768">
         <v>767</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A769">
         <v>768</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A770">
         <v>769</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A771">
         <v>770</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A772">
         <v>771</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A773">
         <v>772</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A774">
         <v>773</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A775">
         <v>774</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A776">
         <v>775</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A777">
         <v>776</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A778">
         <v>777</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A779">
         <v>778</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A780">
         <v>779</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A781">
         <v>780</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A782">
         <v>781</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A783">
         <v>782</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A784">
         <v>783</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A785">
         <v>784</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A786">
         <v>785</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A787">
         <v>786</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A788">
         <v>787</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A789">
         <v>788</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A790">
         <v>789</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A791">
         <v>790</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A792">
         <v>791</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A793">
         <v>792</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A794">
         <v>793</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A795">
         <v>794</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A796">
         <v>795</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A797">
         <v>796</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A798">
         <v>797</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A799">
         <v>798</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A800">
         <v>799</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A801">
         <v>800</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A802">
         <v>801</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A803">
         <v>802</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A804">
         <v>803</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A805">
         <v>804</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A806">
         <v>805</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A807">
         <v>806</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A808">
         <v>807</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A809">
         <v>808</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A810">
         <v>809</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A811">
         <v>810</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A812">
         <v>811</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A813">
         <v>812</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A814">
         <v>813</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A815">
         <v>814</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A816">
         <v>815</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A817">
         <v>816</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A818">
         <v>817</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A819">
         <v>818</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A820">
         <v>819</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A821">
         <v>820</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A822">
         <v>821</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A823">
         <v>822</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A824">
         <v>823</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A825">
         <v>824</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A826">
         <v>825</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A827">
         <v>826</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A828">
         <v>827</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A829">
         <v>828</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A830">
         <v>829</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A831">
         <v>830</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A832">
         <v>831</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A833">
         <v>832</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A834">
         <v>833</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A835">
         <v>834</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A836">
         <v>835</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A837">
         <v>836</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A838">
         <v>837</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A839">
         <v>838</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A840">
         <v>839</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A841">
         <v>840</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A842">
         <v>841</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A843">
         <v>842</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A844">
         <v>843</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A845">
         <v>844</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A846">
         <v>845</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A847">
         <v>846</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A848">
         <v>847</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A849">
         <v>848</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A850">
         <v>849</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A851">
         <v>850</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A852">
         <v>851</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A853">
         <v>852</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A854">
         <v>853</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A855">
         <v>854</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A856">
         <v>855</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A857">
         <v>856</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A858">
         <v>857</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A859">
         <v>858</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A860">
         <v>859</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A861">
         <v>860</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A862">
         <v>861</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A863">
         <v>862</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A864">
         <v>863</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A865">
         <v>864</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A866">
         <v>865</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A867">
         <v>866</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A868">
         <v>867</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A869">
         <v>868</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A870">
         <v>869</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A871">
         <v>870</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A872">
         <v>871</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A873">
         <v>872</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A874">
         <v>873</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A875">
         <v>874</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A876">
         <v>875</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A877">
         <v>876</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A878">
         <v>877</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A879">
         <v>878</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A880">
         <v>879</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A881">
         <v>880</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A882">
         <v>881</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A883">
         <v>882</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A884">
         <v>883</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A885">
         <v>884</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A886">
         <v>885</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A887">
         <v>886</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A888">
         <v>887</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A889">
         <v>888</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A890">
         <v>889</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A891">
         <v>890</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A892">
         <v>891</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A893">
         <v>892</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A894">
         <v>893</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A895">
         <v>894</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A896">
         <v>895</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A897">
         <v>896</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A898">
         <v>897</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A899">
         <v>898</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A900">
         <v>899</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A901">
         <v>900</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A902">
         <v>901</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A903">
         <v>902</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A904">
         <v>903</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A905">
         <v>904</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A906">
         <v>905</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A907">
         <v>906</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A908">
         <v>907</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A909">
         <v>908</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A910">
         <v>909</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A911">
         <v>910</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A912">
         <v>911</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A913">
         <v>912</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A914">
         <v>913</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A915">
         <v>914</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A916">
         <v>915</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A917">
         <v>916</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A918">
         <v>917</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A919">
         <v>918</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A920">
         <v>919</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A921">
         <v>920</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A922">
         <v>921</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A923">
         <v>922</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A924">
         <v>923</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A925">
         <v>924</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A926">
         <v>925</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A927">
         <v>926</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A928">
         <v>927</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A929">
         <v>928</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A930">
         <v>929</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A931">
         <v>930</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A932">
         <v>931</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A933">
         <v>932</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A934">
         <v>933</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A935">
         <v>934</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A936">
         <v>935</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A937">
         <v>936</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A938">
         <v>937</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A939">
         <v>938</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A940">
         <v>939</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A941">
         <v>940</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A942">
         <v>941</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A943">
         <v>942</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A944">
         <v>943</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A945">
         <v>944</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A946">
         <v>945</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A947">
         <v>946</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A948">
         <v>947</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A949">
         <v>948</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A950">
         <v>949</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A951">
         <v>950</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A952">
         <v>951</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A953">
         <v>952</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A954">
         <v>953</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A955">
         <v>954</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A956">
         <v>955</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A957">
         <v>956</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A958">
         <v>957</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A959">
         <v>958</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A960">
         <v>959</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A961">
         <v>960</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A962">
         <v>961</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A963">
         <v>962</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A964">
         <v>963</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A965">
         <v>964</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A966">
         <v>965</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A967">
         <v>966</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A968">
         <v>967</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A969">
         <v>968</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A970">
         <v>969</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A971">
         <v>970</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A972">
         <v>971</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A973">
         <v>972</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A974">
         <v>973</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A975">
         <v>974</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A976">
         <v>975</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A977">
         <v>976</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A978">
         <v>977</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A979">
         <v>978</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A980">
         <v>979</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A981">
         <v>980</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A982">
         <v>981</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A983">
         <v>982</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A984">
         <v>983</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A985">
         <v>984</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A986">
         <v>985</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A987">
         <v>986</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A988">
         <v>987</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A989">
         <v>988</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A990">
         <v>989</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A991">
         <v>990</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A992">
         <v>991</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A993">
         <v>992</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A994">
         <v>993</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A995">
         <v>994</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A996">
         <v>995</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A997">
         <v>996</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A998">
         <v>997</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A999">
         <v>998</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1000">
         <v>999</v>
       </c>

--- a/Documentation/MetIDs.xlsx
+++ b/Documentation/MetIDs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4CA36C-8F7E-4EE0-911D-B84D835B0CDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5995DCA7-D985-46E1-A37C-06DA6B132384}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8263" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="148">
   <si>
     <t>NetID</t>
   </si>
@@ -401,6 +401,69 @@
   </si>
   <si>
     <t>Games</t>
+  </si>
+  <si>
+    <t>Armada</t>
+  </si>
+  <si>
+    <t>Player(1000,33000</t>
+  </si>
+  <si>
+    <t>Dreadnaught</t>
+  </si>
+  <si>
+    <t>Dreadnaught 0</t>
+  </si>
+  <si>
+    <t>Carrier Controller</t>
+  </si>
+  <si>
+    <t>Dreadnaught 1</t>
+  </si>
+  <si>
+    <t>Door 2</t>
+  </si>
+  <si>
+    <t>Dreadnaught 2</t>
+  </si>
+  <si>
+    <t>Turret_1 (1)</t>
+  </si>
+  <si>
+    <t>Turret Controller</t>
+  </si>
+  <si>
+    <t>Shotspawn left</t>
+  </si>
+  <si>
+    <t>Shotspawn right</t>
+  </si>
+  <si>
+    <t>Turret_Small (2)</t>
+  </si>
+  <si>
+    <t>Turret_Small (3)</t>
+  </si>
+  <si>
+    <t>Turret_1</t>
+  </si>
+  <si>
+    <t>Console</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Dreadnaught 3</t>
+  </si>
+  <si>
+    <t>Dreadnaught 4</t>
+  </si>
+  <si>
+    <t>Dreadnaught 5</t>
+  </si>
+  <si>
+    <t>Dreadnaught 6</t>
   </si>
 </sst>
 </file>
@@ -416,7 +479,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,21 +552,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,11 +845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD1000"/>
+  <dimension ref="A1:BD1726"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B442" sqref="B442"/>
+      <pane ySplit="1" topLeftCell="A1710" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1700" sqref="A1700:A1726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -790,12 +857,12 @@
     <col min="2" max="2" width="19.84375" customWidth="1"/>
     <col min="3" max="3" width="28.07421875" customWidth="1"/>
     <col min="4" max="4" width="26.921875" customWidth="1"/>
-    <col min="5" max="5" width="25.921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.921875" customWidth="1"/>
     <col min="6" max="6" width="10.23046875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.921875" customWidth="1"/>
     <col min="8" max="8" width="18.61328125" customWidth="1"/>
     <col min="9" max="9" width="18.23046875" customWidth="1"/>
-    <col min="10" max="10" width="17.07421875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.07421875" customWidth="1"/>
     <col min="11" max="11" width="14.07421875" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.69140625" customWidth="1"/>
     <col min="13" max="13" width="12.69140625" customWidth="1"/>
@@ -818,10 +885,10 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
@@ -833,10 +900,10 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L1" t="s">
@@ -848,10 +915,10 @@
       <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Q1" t="s">
@@ -863,10 +930,10 @@
       <c r="S1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="V1" t="s">
@@ -878,10 +945,10 @@
       <c r="X1" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AA1" t="s">
@@ -893,10 +960,10 @@
       <c r="AC1" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AF1" t="s">
@@ -908,10 +975,10 @@
       <c r="AH1" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AK1" t="s">
@@ -923,10 +990,10 @@
       <c r="AM1" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AP1" t="s">
@@ -938,10 +1005,10 @@
       <c r="AR1" t="s">
         <v>2</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AU1" t="s">
@@ -953,14 +1020,13 @@
       <c r="AW1" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" t="s">
         <v>3</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="3"/>
+      <c r="BD1" s="1"/>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A2">
@@ -987,7 +1053,6 @@
       <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="2"/>
       <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
@@ -997,7 +1062,6 @@
       <c r="S2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="2"/>
       <c r="U2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1071,6 @@
       <c r="X2" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="2"/>
       <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,7 +1080,6 @@
       <c r="AC2" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="2"/>
       <c r="AE2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +1089,6 @@
       <c r="AH2" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="2"/>
       <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1098,6 @@
       <c r="AM2" t="s">
         <v>123</v>
       </c>
-      <c r="AN2" s="2"/>
       <c r="AO2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1047,16 +1107,13 @@
       <c r="AR2" t="s">
         <v>124</v>
       </c>
-      <c r="AS2" s="2"/>
       <c r="AT2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AU2">
         <v>33000</v>
       </c>
-      <c r="AX2" s="2"/>
       <c r="AY2" s="1"/>
-      <c r="BC2" s="2"/>
       <c r="BD2" s="1"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.4">
@@ -1084,7 +1141,6 @@
       <c r="N3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="2"/>
       <c r="P3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1150,6 @@
       <c r="S3" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="2"/>
       <c r="U3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1159,6 @@
       <c r="X3" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="2"/>
       <c r="Z3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1114,7 +1168,6 @@
       <c r="AC3" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="2"/>
       <c r="AE3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1177,6 @@
       <c r="AH3" t="s">
         <v>14</v>
       </c>
-      <c r="AI3" s="2"/>
       <c r="AJ3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1186,6 @@
       <c r="AM3" t="s">
         <v>123</v>
       </c>
-      <c r="AN3" s="2"/>
       <c r="AO3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,16 +1195,13 @@
       <c r="AR3" t="s">
         <v>124</v>
       </c>
-      <c r="AS3" s="2"/>
       <c r="AT3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AU3">
         <v>33001</v>
       </c>
-      <c r="AX3" s="2"/>
       <c r="AY3" s="1"/>
-      <c r="BC3" s="2"/>
       <c r="BD3" s="1"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.4">
@@ -1163,13 +1211,12 @@
       <c r="D4" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>98</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AS4" s="2"/>
       <c r="AT4" s="1"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.4">
@@ -1179,13 +1226,12 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AS5" s="2"/>
       <c r="AT5" s="1"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.4">
@@ -1355,7 +1401,7 @@
       <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>99</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1369,7 +1415,7 @@
       <c r="D24" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>99</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1383,7 +1429,7 @@
       <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>99</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1397,7 +1443,7 @@
       <c r="D26" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>99</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1443,12 +1489,12 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1456,12 +1502,12 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1469,12 +1515,12 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9" t="s">
+      <c r="E36" s="4"/>
+      <c r="F36" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1485,7 +1531,7 @@
       <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -1499,7 +1545,7 @@
       <c r="B38" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -1554,7 +1600,7 @@
       <c r="D43" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" t="s">
         <v>58</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -1571,7 +1617,7 @@
       <c r="D44" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" t="s">
         <v>58</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -1588,7 +1634,7 @@
       <c r="D45" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" t="s">
         <v>59</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -1605,7 +1651,7 @@
       <c r="D46" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" t="s">
         <v>59</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -1662,7 +1708,7 @@
       <c r="D52" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" t="s">
         <v>48</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -1699,7 +1745,7 @@
       <c r="D54" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" t="s">
         <v>48</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -1820,607 +1866,607 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="6"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="6"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="6"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="6"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="6"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="6"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="6"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="6"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="6"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="6"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="6"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="6"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="6"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="6"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="6"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="10">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="10">
+      <c r="A94" s="6">
         <v>93</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="10">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="10">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97" s="10">
+      <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98" s="10">
+      <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="10">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="10">
+      <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100" s="10" t="s">
+      <c r="E100" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101" s="10">
+      <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E101" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F101" s="10" t="s">
+      <c r="E101" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A102" s="10">
+      <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E102" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102" s="10" t="s">
+      <c r="E102" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A103" s="10">
+      <c r="A103" s="6">
         <v>102</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E103" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F103" s="10" t="s">
+      <c r="E103" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A104" s="10">
+      <c r="A104" s="6">
         <v>103</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E104" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F104" s="10" t="s">
+      <c r="E104" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="10">
+      <c r="A105" s="6">
         <v>104</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E105" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F105" s="10" t="s">
+      <c r="E105" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A106" s="10">
+      <c r="A106" s="6">
         <v>105</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E106" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F106" s="10" t="s">
+      <c r="E106" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A107" s="10">
+      <c r="A107" s="6">
         <v>106</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E107" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F107" s="10" t="s">
+      <c r="E107" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A108" s="10">
+      <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E108" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F108" s="10" t="s">
+      <c r="E108" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A109" s="10">
+      <c r="A109" s="6">
         <v>108</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E109" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F109" s="10" t="s">
+      <c r="E109" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A110" s="10">
+      <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E110" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F110" s="10" t="s">
+      <c r="E110" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A111" s="10">
+      <c r="A111" s="6">
         <v>110</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E111" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F111" s="10" t="s">
+      <c r="E111" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F111" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A112" s="10">
+      <c r="A112" s="6">
         <v>111</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E112" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F112" s="10" t="s">
+      <c r="E112" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A113" s="10">
+      <c r="A113" s="6">
         <v>112</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E113" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F113" s="10" t="s">
+      <c r="E113" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A114" s="10">
+      <c r="A114" s="6">
         <v>113</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E114" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F114" s="10" t="s">
+      <c r="E114" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="10">
+      <c r="A115" s="6">
         <v>114</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E115" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F115" s="10" t="s">
+      <c r="E115" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="10">
+      <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11" t="s">
+      <c r="B116" s="7"/>
+      <c r="C116" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F116" s="10" t="s">
+      <c r="F116" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="10">
+      <c r="A117" s="6">
         <v>116</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E117" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F117" s="10" t="s">
+      <c r="E117" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F117" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="10">
+      <c r="A118" s="6">
         <v>117</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E118" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F118" s="10" t="s">
+      <c r="E118" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F118" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2428,19 +2474,19 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E119" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F119" s="10" t="s">
+      <c r="E119" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2448,19 +2494,19 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E120" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F120" s="10" t="s">
+      <c r="E120" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2468,19 +2514,19 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D121" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E121" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F121" s="10" t="s">
+      <c r="E121" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2488,19 +2534,19 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E122" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F122" s="10" t="s">
+      <c r="E122" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2508,19 +2554,19 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E123" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F123" s="10" t="s">
+      <c r="E123" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F123" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2528,19 +2574,19 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E124" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F124" s="10" t="s">
+      <c r="E124" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2548,74 +2594,74 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="12"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="12"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="12"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="12"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="8"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="12"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="8"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D132" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -2626,13 +2672,13 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D133" s="12" t="s">
+      <c r="D133" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F133" s="1" t="s">
@@ -2643,13 +2689,13 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="D134" s="8" t="s">
         <v>90</v>
       </c>
       <c r="F134" s="1" t="s">
@@ -2660,13 +2706,13 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D135" s="12" t="s">
+      <c r="D135" s="8" t="s">
         <v>90</v>
       </c>
       <c r="F135" s="1" t="s">
@@ -2677,33 +2723,33 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="12"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="8"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="12"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="8"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="12"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="8"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="12"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140">
@@ -2714,13 +2760,13 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C141" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F141" s="1" t="s">
@@ -2731,13 +2777,13 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C142" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F142" s="1" t="s">
@@ -2748,13 +2794,13 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C143" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E143" s="11" t="s">
+      <c r="E143" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F143" s="1" t="s">
@@ -2765,13 +2811,13 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C144" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F144" s="1" t="s">
@@ -2782,13 +2828,13 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C145" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D145" s="11" t="s">
+      <c r="D145" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F145" s="1" t="s">
@@ -2799,13 +2845,13 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="D146" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="E146" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F146" s="1" t="s">
@@ -2816,13 +2862,13 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="D147" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="E147" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F147" s="1" t="s">
@@ -2833,13 +2879,13 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C148" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="E148" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F148" s="1" t="s">
@@ -3130,7 +3176,7 @@
       <c r="D202" t="s">
         <v>30</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" t="s">
         <v>31</v>
       </c>
       <c r="F202" s="1" t="s">
@@ -3150,7 +3196,7 @@
       <c r="D203" t="s">
         <v>32</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" t="s">
         <v>31</v>
       </c>
       <c r="F203" s="1" t="s">
@@ -3170,7 +3216,7 @@
       <c r="D204" t="s">
         <v>30</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="E204" t="s">
         <v>31</v>
       </c>
       <c r="F204" s="1" t="s">
@@ -3190,7 +3236,7 @@
       <c r="D205" t="s">
         <v>32</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="E205" t="s">
         <v>31</v>
       </c>
       <c r="F205" s="1" t="s">
@@ -3210,7 +3256,7 @@
       <c r="D206" t="s">
         <v>30</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" t="s">
         <v>31</v>
       </c>
       <c r="F206" s="1" t="s">
@@ -3230,7 +3276,7 @@
       <c r="D207" t="s">
         <v>32</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" t="s">
         <v>31</v>
       </c>
       <c r="F207" s="1" t="s">
@@ -3250,7 +3296,7 @@
       <c r="D208" t="s">
         <v>30</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" t="s">
         <v>31</v>
       </c>
       <c r="F208" s="1" t="s">
@@ -3270,7 +3316,7 @@
       <c r="D209" t="s">
         <v>32</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" t="s">
         <v>31</v>
       </c>
       <c r="F209" s="1" t="s">
@@ -3290,7 +3336,7 @@
       <c r="D210" t="s">
         <v>30</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E210" t="s">
         <v>31</v>
       </c>
       <c r="F210" s="1" t="s">
@@ -3318,7 +3364,7 @@
       <c r="D212" t="s">
         <v>30</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" t="s">
         <v>31</v>
       </c>
       <c r="F212" s="1" t="s">
@@ -3332,7 +3378,7 @@
       <c r="B213" t="s">
         <v>16</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E213" t="s">
         <v>31</v>
       </c>
       <c r="F213" s="1" t="s">
@@ -3352,7 +3398,7 @@
       <c r="D214" t="s">
         <v>30</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" t="s">
         <v>31</v>
       </c>
       <c r="F214" s="1" t="s">
@@ -3372,7 +3418,7 @@
       <c r="D215" t="s">
         <v>32</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" t="s">
         <v>31</v>
       </c>
       <c r="F215" s="1" t="s">
@@ -3392,7 +3438,7 @@
       <c r="D216" t="s">
         <v>30</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" t="s">
         <v>31</v>
       </c>
       <c r="F216" s="1" t="s">
@@ -3412,7 +3458,7 @@
       <c r="D217" t="s">
         <v>32</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E217" t="s">
         <v>31</v>
       </c>
       <c r="F217" s="1" t="s">
@@ -3423,177 +3469,177 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="6"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="3"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="6"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="3"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="6"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="3"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="5"/>
-      <c r="F221" s="6"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="3"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="6"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="3"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="5"/>
-      <c r="F223" s="6"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="3"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="5"/>
-      <c r="F224" s="6"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="3"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="5"/>
-      <c r="F225" s="6"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="3"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="5"/>
-      <c r="F226" s="6"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="3"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="6"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="3"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="6"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="3"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="5"/>
-      <c r="F229" s="6"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="3"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="6"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="3"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="6"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="3"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="6"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="6"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="3"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B234" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C234" s="11"/>
-      <c r="D234" s="11" t="s">
+      <c r="C234" s="7"/>
+      <c r="D234" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E234" s="11" t="s">
+      <c r="E234" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F234" s="11" t="s">
+      <c r="F234" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3601,19 +3647,19 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B235" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C235" s="11" t="s">
+      <c r="C235" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D235" s="11" t="s">
+      <c r="D235" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E235" s="11" t="s">
+      <c r="E235" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F235" s="11" t="s">
+      <c r="F235" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3621,17 +3667,17 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="11" t="s">
+      <c r="B236" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C236" s="11" t="s">
+      <c r="C236" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D236" s="11" t="s">
+      <c r="D236" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E236" s="11"/>
-      <c r="F236" s="11" t="s">
+      <c r="E236" s="7"/>
+      <c r="F236" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3639,17 +3685,17 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="11" t="s">
+      <c r="B237" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C237" s="11" t="s">
+      <c r="C237" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D237" s="11" t="s">
+      <c r="D237" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E237" s="11"/>
-      <c r="F237" s="11" t="s">
+      <c r="E237" s="7"/>
+      <c r="F237" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3657,17 +3703,17 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B238" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C238" s="11" t="s">
+      <c r="C238" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D238" s="11" t="s">
+      <c r="D238" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E238" s="11"/>
-      <c r="F238" s="11" t="s">
+      <c r="E238" s="7"/>
+      <c r="F238" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3675,17 +3721,17 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B239" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C239" s="11" t="s">
+      <c r="C239" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D239" s="11" t="s">
+      <c r="D239" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E239" s="11"/>
-      <c r="F239" s="11" t="s">
+      <c r="E239" s="7"/>
+      <c r="F239" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3693,17 +3739,17 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C240" s="11" t="s">
+      <c r="C240" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D240" s="11" t="s">
+      <c r="D240" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E240" s="10"/>
-      <c r="F240" s="10" t="s">
+      <c r="E240" s="6"/>
+      <c r="F240" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3711,19 +3757,19 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="11" t="s">
+      <c r="B241" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C241" s="11" t="s">
+      <c r="C241" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D241" s="11" t="s">
+      <c r="D241" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E241" s="11" t="s">
+      <c r="E241" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F241" s="10" t="s">
+      <c r="F241" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3731,280 +3777,280 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="11"/>
-      <c r="C242" s="11"/>
-      <c r="D242" s="11"/>
-      <c r="E242" s="11"/>
-      <c r="F242" s="10"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="6"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="11"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="11"/>
-      <c r="E243" s="11"/>
-      <c r="F243" s="10"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="6"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
-      <c r="E244" s="11"/>
-      <c r="F244" s="10"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="6"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="11"/>
-      <c r="C245" s="11"/>
-      <c r="D245" s="11"/>
-      <c r="E245" s="11"/>
-      <c r="F245" s="10"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="6"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="11"/>
-      <c r="C246" s="11"/>
-      <c r="D246" s="11"/>
-      <c r="E246" s="11"/>
-      <c r="F246" s="10"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="6"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="11"/>
-      <c r="C247" s="11"/>
-      <c r="D247" s="11"/>
-      <c r="E247" s="11"/>
-      <c r="F247" s="10"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="6"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
-      <c r="E248" s="11"/>
-      <c r="F248" s="10"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="6"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
-      <c r="E249" s="11"/>
-      <c r="F249" s="10"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="6"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
-      <c r="F250" s="10"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="6"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="11"/>
-      <c r="C251" s="11"/>
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
-      <c r="F251" s="10"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="6"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="11"/>
-      <c r="C252" s="11"/>
-      <c r="D252" s="11"/>
-      <c r="E252" s="11"/>
-      <c r="F252" s="10"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="6"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="11"/>
-      <c r="C253" s="11"/>
-      <c r="D253" s="11"/>
-      <c r="E253" s="11"/>
-      <c r="F253" s="10"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="6"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="11"/>
-      <c r="C254" s="11"/>
-      <c r="D254" s="11"/>
-      <c r="E254" s="11"/>
-      <c r="F254" s="10"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="6"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="11"/>
-      <c r="C255" s="11"/>
-      <c r="D255" s="11"/>
-      <c r="E255" s="11"/>
-      <c r="F255" s="10"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="6"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="11"/>
-      <c r="C256" s="11"/>
-      <c r="D256" s="11"/>
-      <c r="E256" s="11"/>
-      <c r="F256" s="10"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="6"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="11"/>
-      <c r="C257" s="11"/>
-      <c r="D257" s="11"/>
-      <c r="E257" s="11"/>
-      <c r="F257" s="10"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="6"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="11"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
-      <c r="F258" s="10"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="6"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="11"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
-      <c r="F259" s="10"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="6"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="11"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="11"/>
-      <c r="E260" s="11"/>
-      <c r="F260" s="10"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="6"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="11"/>
-      <c r="C261" s="10"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
-      <c r="F261" s="10"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="6"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="11" t="s">
+      <c r="B262" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C262" s="10" t="s">
+      <c r="C262" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D262" s="11" t="s">
+      <c r="D262" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E262" s="11"/>
-      <c r="F262" s="10"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="6"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="11" t="s">
+      <c r="B263" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C263" s="10" t="s">
+      <c r="C263" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D263" s="11" t="s">
+      <c r="D263" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E263" s="11"/>
-      <c r="F263" s="10"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="6"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="11" t="s">
+      <c r="B264" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C264" s="10" t="s">
+      <c r="C264" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D264" s="11" t="s">
+      <c r="D264" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E264" s="11"/>
-      <c r="F264" s="10"/>
+      <c r="E264" s="7"/>
+      <c r="F264" s="6"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="11" t="s">
+      <c r="B265" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C265" s="10" t="s">
+      <c r="C265" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D265" s="11" t="s">
+      <c r="D265" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E265" s="11"/>
-      <c r="F265" s="10"/>
+      <c r="E265" s="7"/>
+      <c r="F265" s="6"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="12" t="s">
+      <c r="B266" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C266" s="13" t="s">
+      <c r="C266" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D266" s="12" t="s">
+      <c r="D266" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E266" s="12" t="s">
+      <c r="E266" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F266" s="1" t="s">
@@ -4015,25 +4061,25 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="12"/>
-      <c r="C267" s="13"/>
-      <c r="D267" s="12"/>
-      <c r="E267" s="12"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="9"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="8"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="12" t="s">
+      <c r="B268" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C268" s="13" t="s">
+      <c r="C268" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D268" s="12" t="s">
+      <c r="D268" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E268" s="12" t="s">
+      <c r="E268" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F268" s="1" t="s">
@@ -4044,25 +4090,25 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="12"/>
-      <c r="C269" s="13"/>
-      <c r="D269" s="12"/>
-      <c r="E269" s="12"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="9"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="8"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="12" t="s">
+      <c r="B270" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C270" s="13" t="s">
+      <c r="C270" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D270" s="12" t="s">
+      <c r="D270" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E270" s="12" t="s">
+      <c r="E270" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F270" s="1" t="s">
@@ -4073,13 +4119,13 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="12" t="s">
+      <c r="B271" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C271" s="13" t="s">
+      <c r="C271" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D271" s="12" t="s">
+      <c r="D271" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F271" s="1" t="s">
@@ -4090,13 +4136,13 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="12" t="s">
+      <c r="B272" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C272" s="13" t="s">
+      <c r="C272" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D272" s="12" t="s">
+      <c r="D272" s="8" t="s">
         <v>83</v>
       </c>
       <c r="F272" s="1" t="s">
@@ -4107,45 +4153,45 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="12"/>
-      <c r="C273" s="13"/>
-      <c r="D273" s="12"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="9"/>
+      <c r="D273" s="8"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="12"/>
-      <c r="C274" s="13"/>
-      <c r="D274" s="12"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="9"/>
+      <c r="D274" s="8"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="12"/>
-      <c r="C275" s="13"/>
-      <c r="D275" s="12"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="9"/>
+      <c r="D275" s="8"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="12"/>
-      <c r="C276" s="13"/>
-      <c r="D276" s="12"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="9"/>
+      <c r="D276" s="8"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="12" t="s">
+      <c r="B277" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C277" s="13" t="s">
+      <c r="C277" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D277" s="12" t="s">
+      <c r="D277" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F277" s="1" t="s">
@@ -4156,13 +4202,13 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="12" t="s">
+      <c r="B278" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C278" s="13" t="s">
+      <c r="C278" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D278" s="12" t="s">
+      <c r="D278" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F278" s="1" t="s">
@@ -4173,13 +4219,13 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="12" t="s">
+      <c r="B279" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C279" s="13" t="s">
+      <c r="C279" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D279" s="12" t="s">
+      <c r="D279" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F279" s="1" t="s">
@@ -4190,13 +4236,13 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="12" t="s">
+      <c r="B280" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C280" s="13" t="s">
+      <c r="C280" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D280" s="12" t="s">
+      <c r="D280" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F280" s="1" t="s">
@@ -4827,7 +4873,7 @@
       <c r="D402" t="s">
         <v>30</v>
       </c>
-      <c r="E402" s="2" t="s">
+      <c r="E402" t="s">
         <v>31</v>
       </c>
       <c r="F402" s="1" t="s">
@@ -4847,7 +4893,7 @@
       <c r="D403" t="s">
         <v>32</v>
       </c>
-      <c r="E403" s="2" t="s">
+      <c r="E403" t="s">
         <v>31</v>
       </c>
       <c r="F403" s="1" t="s">
@@ -4867,7 +4913,7 @@
       <c r="D404" t="s">
         <v>30</v>
       </c>
-      <c r="E404" s="2" t="s">
+      <c r="E404" t="s">
         <v>31</v>
       </c>
       <c r="F404" s="1" t="s">
@@ -4887,7 +4933,7 @@
       <c r="D405" t="s">
         <v>32</v>
       </c>
-      <c r="E405" s="2" t="s">
+      <c r="E405" t="s">
         <v>31</v>
       </c>
       <c r="F405" s="1" t="s">
@@ -4907,7 +4953,7 @@
       <c r="D406" t="s">
         <v>30</v>
       </c>
-      <c r="E406" s="2" t="s">
+      <c r="E406" t="s">
         <v>31</v>
       </c>
       <c r="F406" s="1" t="s">
@@ -4927,7 +4973,7 @@
       <c r="D407" t="s">
         <v>32</v>
       </c>
-      <c r="E407" s="2" t="s">
+      <c r="E407" t="s">
         <v>31</v>
       </c>
       <c r="F407" s="1" t="s">
@@ -4947,7 +4993,7 @@
       <c r="D408" t="s">
         <v>30</v>
       </c>
-      <c r="E408" s="2" t="s">
+      <c r="E408" t="s">
         <v>31</v>
       </c>
       <c r="F408" s="1" t="s">
@@ -4967,7 +5013,7 @@
       <c r="D409" t="s">
         <v>32</v>
       </c>
-      <c r="E409" s="2" t="s">
+      <c r="E409" t="s">
         <v>31</v>
       </c>
       <c r="F409" s="1" t="s">
@@ -4987,7 +5033,7 @@
       <c r="D410" t="s">
         <v>30</v>
       </c>
-      <c r="E410" s="2" t="s">
+      <c r="E410" t="s">
         <v>31</v>
       </c>
       <c r="F410" s="1" t="s">
@@ -5015,7 +5061,7 @@
       <c r="D412" t="s">
         <v>30</v>
       </c>
-      <c r="E412" s="2" t="s">
+      <c r="E412" t="s">
         <v>31</v>
       </c>
       <c r="F412" s="1" t="s">
@@ -5029,7 +5075,7 @@
       <c r="B413" t="s">
         <v>21</v>
       </c>
-      <c r="E413" s="2" t="s">
+      <c r="E413" t="s">
         <v>31</v>
       </c>
       <c r="F413" s="1" t="s">
@@ -5049,7 +5095,7 @@
       <c r="D414" t="s">
         <v>30</v>
       </c>
-      <c r="E414" s="2" t="s">
+      <c r="E414" t="s">
         <v>31</v>
       </c>
       <c r="F414" s="1" t="s">
@@ -5069,7 +5115,7 @@
       <c r="D415" t="s">
         <v>32</v>
       </c>
-      <c r="E415" s="2" t="s">
+      <c r="E415" t="s">
         <v>31</v>
       </c>
       <c r="F415" s="1" t="s">
@@ -5089,7 +5135,7 @@
       <c r="D416" t="s">
         <v>30</v>
       </c>
-      <c r="E416" s="2" t="s">
+      <c r="E416" t="s">
         <v>31</v>
       </c>
       <c r="F416" s="1" t="s">
@@ -5109,7 +5155,7 @@
       <c r="D417" t="s">
         <v>32</v>
       </c>
-      <c r="E417" s="2" t="s">
+      <c r="E417" t="s">
         <v>31</v>
       </c>
       <c r="F417" s="1" t="s">
@@ -5123,10 +5169,10 @@
       <c r="B418" t="s">
         <v>21</v>
       </c>
-      <c r="C418" s="4"/>
-      <c r="D418" s="4"/>
-      <c r="E418" s="5"/>
-      <c r="F418" s="6"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+      <c r="E418" s="2"/>
+      <c r="F418" s="3"/>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419">
@@ -5135,10 +5181,10 @@
       <c r="B419" t="s">
         <v>21</v>
       </c>
-      <c r="C419" s="4"/>
-      <c r="D419" s="4"/>
-      <c r="E419" s="5"/>
-      <c r="F419" s="6"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="2"/>
+      <c r="F419" s="3"/>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420">
@@ -5147,10 +5193,10 @@
       <c r="B420" t="s">
         <v>21</v>
       </c>
-      <c r="C420" s="4"/>
-      <c r="D420" s="4"/>
-      <c r="E420" s="5"/>
-      <c r="F420" s="6"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="2"/>
+      <c r="E420" s="2"/>
+      <c r="F420" s="3"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421">
@@ -5159,10 +5205,10 @@
       <c r="B421" t="s">
         <v>21</v>
       </c>
-      <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
-      <c r="E421" s="5"/>
-      <c r="F421" s="6"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="2"/>
+      <c r="E421" s="2"/>
+      <c r="F421" s="3"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422">
@@ -5171,10 +5217,10 @@
       <c r="B422" t="s">
         <v>21</v>
       </c>
-      <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
-      <c r="E422" s="5"/>
-      <c r="F422" s="6"/>
+      <c r="C422" s="2"/>
+      <c r="D422" s="2"/>
+      <c r="E422" s="2"/>
+      <c r="F422" s="3"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423">
@@ -5183,10 +5229,10 @@
       <c r="B423" t="s">
         <v>21</v>
       </c>
-      <c r="C423" s="4"/>
-      <c r="D423" s="4"/>
-      <c r="E423" s="5"/>
-      <c r="F423" s="6"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+      <c r="E423" s="2"/>
+      <c r="F423" s="3"/>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424">
@@ -5195,10 +5241,10 @@
       <c r="B424" t="s">
         <v>21</v>
       </c>
-      <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
-      <c r="E424" s="5"/>
-      <c r="F424" s="6"/>
+      <c r="C424" s="2"/>
+      <c r="D424" s="2"/>
+      <c r="E424" s="2"/>
+      <c r="F424" s="3"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425">
@@ -5207,10 +5253,10 @@
       <c r="B425" t="s">
         <v>21</v>
       </c>
-      <c r="C425" s="4"/>
-      <c r="D425" s="4"/>
-      <c r="E425" s="5"/>
-      <c r="F425" s="6"/>
+      <c r="C425" s="2"/>
+      <c r="D425" s="2"/>
+      <c r="E425" s="2"/>
+      <c r="F425" s="3"/>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426">
@@ -5219,10 +5265,10 @@
       <c r="B426" t="s">
         <v>21</v>
       </c>
-      <c r="C426" s="4"/>
-      <c r="D426" s="4"/>
-      <c r="E426" s="5"/>
-      <c r="F426" s="6"/>
+      <c r="C426" s="2"/>
+      <c r="D426" s="2"/>
+      <c r="E426" s="2"/>
+      <c r="F426" s="3"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427">
@@ -5231,10 +5277,10 @@
       <c r="B427" t="s">
         <v>21</v>
       </c>
-      <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
-      <c r="E427" s="5"/>
-      <c r="F427" s="6"/>
+      <c r="C427" s="2"/>
+      <c r="D427" s="2"/>
+      <c r="E427" s="2"/>
+      <c r="F427" s="3"/>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428">
@@ -5243,10 +5289,10 @@
       <c r="B428" t="s">
         <v>21</v>
       </c>
-      <c r="C428" s="4"/>
-      <c r="D428" s="4"/>
-      <c r="E428" s="5"/>
-      <c r="F428" s="6"/>
+      <c r="C428" s="2"/>
+      <c r="D428" s="2"/>
+      <c r="E428" s="2"/>
+      <c r="F428" s="3"/>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429">
@@ -5255,10 +5301,10 @@
       <c r="B429" t="s">
         <v>21</v>
       </c>
-      <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
-      <c r="E429" s="5"/>
-      <c r="F429" s="6"/>
+      <c r="C429" s="2"/>
+      <c r="D429" s="2"/>
+      <c r="E429" s="2"/>
+      <c r="F429" s="3"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430">
@@ -5267,10 +5313,10 @@
       <c r="B430" t="s">
         <v>21</v>
       </c>
-      <c r="C430" s="4"/>
-      <c r="D430" s="4"/>
-      <c r="E430" s="5"/>
-      <c r="F430" s="6"/>
+      <c r="C430" s="2"/>
+      <c r="D430" s="2"/>
+      <c r="E430" s="2"/>
+      <c r="F430" s="3"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431">
@@ -5279,10 +5325,10 @@
       <c r="B431" t="s">
         <v>21</v>
       </c>
-      <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
-      <c r="E431" s="5"/>
-      <c r="F431" s="6"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="2"/>
+      <c r="E431" s="2"/>
+      <c r="F431" s="3"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432">
@@ -5291,10 +5337,10 @@
       <c r="B432" t="s">
         <v>21</v>
       </c>
-      <c r="C432" s="4"/>
-      <c r="D432" s="4"/>
-      <c r="E432" s="5"/>
-      <c r="F432" s="6"/>
+      <c r="C432" s="2"/>
+      <c r="D432" s="2"/>
+      <c r="E432" s="2"/>
+      <c r="F432" s="3"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433">
@@ -5303,10 +5349,10 @@
       <c r="B433" t="s">
         <v>21</v>
       </c>
-      <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
-      <c r="E433" s="5"/>
-      <c r="F433" s="6"/>
+      <c r="C433" s="2"/>
+      <c r="D433" s="2"/>
+      <c r="E433" s="2"/>
+      <c r="F433" s="3"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434">
@@ -5315,14 +5361,14 @@
       <c r="B434" t="s">
         <v>21</v>
       </c>
-      <c r="C434" s="11"/>
-      <c r="D434" s="11" t="s">
+      <c r="C434" s="7"/>
+      <c r="D434" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E434" s="11" t="s">
+      <c r="E434" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F434" s="11" t="s">
+      <c r="F434" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5333,16 +5379,16 @@
       <c r="B435" t="s">
         <v>21</v>
       </c>
-      <c r="C435" s="11" t="s">
+      <c r="C435" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D435" s="11" t="s">
+      <c r="D435" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E435" s="11" t="s">
+      <c r="E435" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F435" s="11" t="s">
+      <c r="F435" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5353,14 +5399,14 @@
       <c r="B436" t="s">
         <v>21</v>
       </c>
-      <c r="C436" s="11" t="s">
+      <c r="C436" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D436" s="11" t="s">
+      <c r="D436" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E436" s="11"/>
-      <c r="F436" s="11" t="s">
+      <c r="E436" s="7"/>
+      <c r="F436" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5371,14 +5417,14 @@
       <c r="B437" t="s">
         <v>21</v>
       </c>
-      <c r="C437" s="11" t="s">
+      <c r="C437" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D437" s="11" t="s">
+      <c r="D437" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E437" s="11"/>
-      <c r="F437" s="11" t="s">
+      <c r="E437" s="7"/>
+      <c r="F437" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5389,14 +5435,14 @@
       <c r="B438" t="s">
         <v>21</v>
       </c>
-      <c r="C438" s="11" t="s">
+      <c r="C438" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D438" s="11" t="s">
+      <c r="D438" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E438" s="11"/>
-      <c r="F438" s="11" t="s">
+      <c r="E438" s="7"/>
+      <c r="F438" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5407,14 +5453,14 @@
       <c r="B439" t="s">
         <v>21</v>
       </c>
-      <c r="C439" s="11" t="s">
+      <c r="C439" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D439" s="11" t="s">
+      <c r="D439" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E439" s="11"/>
-      <c r="F439" s="11" t="s">
+      <c r="E439" s="7"/>
+      <c r="F439" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5425,14 +5471,14 @@
       <c r="B440" t="s">
         <v>21</v>
       </c>
-      <c r="C440" s="11" t="s">
+      <c r="C440" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D440" s="11" t="s">
+      <c r="D440" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E440" s="10"/>
-      <c r="F440" s="10" t="s">
+      <c r="E440" s="6"/>
+      <c r="F440" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5440,19 +5486,19 @@
       <c r="A441">
         <v>440</v>
       </c>
-      <c r="B441" s="11" t="s">
+      <c r="B441" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C441" s="11" t="s">
+      <c r="C441" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D441" s="11" t="s">
+      <c r="D441" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E441" s="11" t="s">
+      <c r="E441" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F441" s="10" t="s">
+      <c r="F441" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5463,10 +5509,10 @@
       <c r="B442" t="s">
         <v>21</v>
       </c>
-      <c r="C442" s="11"/>
-      <c r="D442" s="11"/>
-      <c r="E442" s="11"/>
-      <c r="F442" s="10"/>
+      <c r="C442" s="7"/>
+      <c r="D442" s="7"/>
+      <c r="E442" s="7"/>
+      <c r="F442" s="6"/>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443">
@@ -5475,10 +5521,10 @@
       <c r="B443" t="s">
         <v>21</v>
       </c>
-      <c r="C443" s="11"/>
-      <c r="D443" s="11"/>
-      <c r="E443" s="11"/>
-      <c r="F443" s="10"/>
+      <c r="C443" s="7"/>
+      <c r="D443" s="7"/>
+      <c r="E443" s="7"/>
+      <c r="F443" s="6"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444">
@@ -5487,10 +5533,10 @@
       <c r="B444" t="s">
         <v>21</v>
       </c>
-      <c r="C444" s="11"/>
-      <c r="D444" s="11"/>
-      <c r="E444" s="11"/>
-      <c r="F444" s="10"/>
+      <c r="C444" s="7"/>
+      <c r="D444" s="7"/>
+      <c r="E444" s="7"/>
+      <c r="F444" s="6"/>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445">
@@ -5499,10 +5545,10 @@
       <c r="B445" t="s">
         <v>21</v>
       </c>
-      <c r="C445" s="11"/>
-      <c r="D445" s="11"/>
-      <c r="E445" s="11"/>
-      <c r="F445" s="10"/>
+      <c r="C445" s="7"/>
+      <c r="D445" s="7"/>
+      <c r="E445" s="7"/>
+      <c r="F445" s="6"/>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446">
@@ -5511,10 +5557,10 @@
       <c r="B446" t="s">
         <v>21</v>
       </c>
-      <c r="C446" s="11"/>
-      <c r="D446" s="11"/>
-      <c r="E446" s="11"/>
-      <c r="F446" s="10"/>
+      <c r="C446" s="7"/>
+      <c r="D446" s="7"/>
+      <c r="E446" s="7"/>
+      <c r="F446" s="6"/>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447">
@@ -5523,10 +5569,10 @@
       <c r="B447" t="s">
         <v>21</v>
       </c>
-      <c r="C447" s="11"/>
-      <c r="D447" s="11"/>
-      <c r="E447" s="11"/>
-      <c r="F447" s="10"/>
+      <c r="C447" s="7"/>
+      <c r="D447" s="7"/>
+      <c r="E447" s="7"/>
+      <c r="F447" s="6"/>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448">
@@ -5535,10 +5581,10 @@
       <c r="B448" t="s">
         <v>21</v>
       </c>
-      <c r="C448" s="11"/>
-      <c r="D448" s="11"/>
-      <c r="E448" s="11"/>
-      <c r="F448" s="10"/>
+      <c r="C448" s="7"/>
+      <c r="D448" s="7"/>
+      <c r="E448" s="7"/>
+      <c r="F448" s="6"/>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449">
@@ -5547,10 +5593,10 @@
       <c r="B449" t="s">
         <v>21</v>
       </c>
-      <c r="C449" s="11"/>
-      <c r="D449" s="11"/>
-      <c r="E449" s="11"/>
-      <c r="F449" s="10"/>
+      <c r="C449" s="7"/>
+      <c r="D449" s="7"/>
+      <c r="E449" s="7"/>
+      <c r="F449" s="6"/>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450">
@@ -5559,10 +5605,10 @@
       <c r="B450" t="s">
         <v>21</v>
       </c>
-      <c r="C450" s="11"/>
-      <c r="D450" s="11"/>
-      <c r="E450" s="11"/>
-      <c r="F450" s="10"/>
+      <c r="C450" s="7"/>
+      <c r="D450" s="7"/>
+      <c r="E450" s="7"/>
+      <c r="F450" s="6"/>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451">
@@ -5571,10 +5617,10 @@
       <c r="B451" t="s">
         <v>21</v>
       </c>
-      <c r="C451" s="11"/>
-      <c r="D451" s="11"/>
-      <c r="E451" s="11"/>
-      <c r="F451" s="10"/>
+      <c r="C451" s="7"/>
+      <c r="D451" s="7"/>
+      <c r="E451" s="7"/>
+      <c r="F451" s="6"/>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452">
@@ -5583,10 +5629,10 @@
       <c r="B452" t="s">
         <v>21</v>
       </c>
-      <c r="C452" s="11"/>
-      <c r="D452" s="11"/>
-      <c r="E452" s="11"/>
-      <c r="F452" s="10"/>
+      <c r="C452" s="7"/>
+      <c r="D452" s="7"/>
+      <c r="E452" s="7"/>
+      <c r="F452" s="6"/>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453">
@@ -5595,10 +5641,10 @@
       <c r="B453" t="s">
         <v>21</v>
       </c>
-      <c r="C453" s="11"/>
-      <c r="D453" s="11"/>
-      <c r="E453" s="11"/>
-      <c r="F453" s="10"/>
+      <c r="C453" s="7"/>
+      <c r="D453" s="7"/>
+      <c r="E453" s="7"/>
+      <c r="F453" s="6"/>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454">
@@ -5607,10 +5653,10 @@
       <c r="B454" t="s">
         <v>21</v>
       </c>
-      <c r="C454" s="11"/>
-      <c r="D454" s="11"/>
-      <c r="E454" s="11"/>
-      <c r="F454" s="10"/>
+      <c r="C454" s="7"/>
+      <c r="D454" s="7"/>
+      <c r="E454" s="7"/>
+      <c r="F454" s="6"/>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455">
@@ -5619,10 +5665,10 @@
       <c r="B455" t="s">
         <v>21</v>
       </c>
-      <c r="C455" s="11"/>
-      <c r="D455" s="11"/>
-      <c r="E455" s="11"/>
-      <c r="F455" s="10"/>
+      <c r="C455" s="7"/>
+      <c r="D455" s="7"/>
+      <c r="E455" s="7"/>
+      <c r="F455" s="6"/>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456">
@@ -5631,10 +5677,10 @@
       <c r="B456" t="s">
         <v>21</v>
       </c>
-      <c r="C456" s="11"/>
-      <c r="D456" s="11"/>
-      <c r="E456" s="11"/>
-      <c r="F456" s="10"/>
+      <c r="C456" s="7"/>
+      <c r="D456" s="7"/>
+      <c r="E456" s="7"/>
+      <c r="F456" s="6"/>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457">
@@ -5643,10 +5689,10 @@
       <c r="B457" t="s">
         <v>21</v>
       </c>
-      <c r="C457" s="11"/>
-      <c r="D457" s="11"/>
-      <c r="E457" s="11"/>
-      <c r="F457" s="10"/>
+      <c r="C457" s="7"/>
+      <c r="D457" s="7"/>
+      <c r="E457" s="7"/>
+      <c r="F457" s="6"/>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458">
@@ -5655,10 +5701,10 @@
       <c r="B458" t="s">
         <v>21</v>
       </c>
-      <c r="C458" s="10"/>
-      <c r="D458" s="11"/>
-      <c r="E458" s="11"/>
-      <c r="F458" s="10"/>
+      <c r="C458" s="6"/>
+      <c r="D458" s="7"/>
+      <c r="E458" s="7"/>
+      <c r="F458" s="6"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459">
@@ -5667,10 +5713,10 @@
       <c r="B459" t="s">
         <v>21</v>
       </c>
-      <c r="C459" s="10"/>
-      <c r="D459" s="11"/>
-      <c r="E459" s="11"/>
-      <c r="F459" s="10"/>
+      <c r="C459" s="6"/>
+      <c r="D459" s="7"/>
+      <c r="E459" s="7"/>
+      <c r="F459" s="6"/>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460">
@@ -5679,10 +5725,10 @@
       <c r="B460" t="s">
         <v>21</v>
       </c>
-      <c r="C460" s="10"/>
-      <c r="D460" s="11"/>
-      <c r="E460" s="11"/>
-      <c r="F460" s="10"/>
+      <c r="C460" s="6"/>
+      <c r="D460" s="7"/>
+      <c r="E460" s="7"/>
+      <c r="F460" s="6"/>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461">
@@ -5691,10 +5737,10 @@
       <c r="B461" t="s">
         <v>21</v>
       </c>
-      <c r="C461" s="10"/>
-      <c r="D461" s="11"/>
-      <c r="E461" s="11"/>
-      <c r="F461" s="10"/>
+      <c r="C461" s="6"/>
+      <c r="D461" s="7"/>
+      <c r="E461" s="7"/>
+      <c r="F461" s="6"/>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462">
@@ -5703,14 +5749,14 @@
       <c r="B462" t="s">
         <v>21</v>
       </c>
-      <c r="C462" s="10" t="s">
+      <c r="C462" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D462" s="11" t="s">
+      <c r="D462" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E462" s="11"/>
-      <c r="F462" s="10"/>
+      <c r="E462" s="7"/>
+      <c r="F462" s="6"/>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463">
@@ -5719,14 +5765,14 @@
       <c r="B463" t="s">
         <v>21</v>
       </c>
-      <c r="C463" s="10" t="s">
+      <c r="C463" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D463" s="11" t="s">
+      <c r="D463" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E463" s="11"/>
-      <c r="F463" s="10"/>
+      <c r="E463" s="7"/>
+      <c r="F463" s="6"/>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464">
@@ -5735,14 +5781,14 @@
       <c r="B464" t="s">
         <v>21</v>
       </c>
-      <c r="C464" s="10" t="s">
+      <c r="C464" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D464" s="11" t="s">
+      <c r="D464" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E464" s="11"/>
-      <c r="F464" s="10"/>
+      <c r="E464" s="7"/>
+      <c r="F464" s="6"/>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465">
@@ -5751,14 +5797,14 @@
       <c r="B465" t="s">
         <v>21</v>
       </c>
-      <c r="C465" s="10" t="s">
+      <c r="C465" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D465" s="11" t="s">
+      <c r="D465" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E465" s="11"/>
-      <c r="F465" s="10"/>
+      <c r="E465" s="7"/>
+      <c r="F465" s="6"/>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466">
@@ -5767,13 +5813,13 @@
       <c r="B466" t="s">
         <v>21</v>
       </c>
-      <c r="C466" s="13" t="s">
+      <c r="C466" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D466" s="12" t="s">
+      <c r="D466" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E466" s="12" t="s">
+      <c r="E466" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F466" s="1" t="s">
@@ -5787,9 +5833,9 @@
       <c r="B467" t="s">
         <v>21</v>
       </c>
-      <c r="C467" s="13"/>
-      <c r="D467" s="12"/>
-      <c r="E467" s="12"/>
+      <c r="C467" s="9"/>
+      <c r="D467" s="8"/>
+      <c r="E467" s="8"/>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468">
@@ -5798,13 +5844,13 @@
       <c r="B468" t="s">
         <v>21</v>
       </c>
-      <c r="C468" s="13" t="s">
+      <c r="C468" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D468" s="12" t="s">
+      <c r="D468" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E468" s="12" t="s">
+      <c r="E468" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F468" s="1" t="s">
@@ -5818,9 +5864,9 @@
       <c r="B469" t="s">
         <v>21</v>
       </c>
-      <c r="C469" s="13"/>
-      <c r="D469" s="12"/>
-      <c r="E469" s="12"/>
+      <c r="C469" s="9"/>
+      <c r="D469" s="8"/>
+      <c r="E469" s="8"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470">
@@ -5829,13 +5875,13 @@
       <c r="B470" t="s">
         <v>21</v>
       </c>
-      <c r="C470" s="13" t="s">
+      <c r="C470" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D470" s="12" t="s">
+      <c r="D470" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E470" s="12" t="s">
+      <c r="E470" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F470" s="1" t="s">
@@ -5849,10 +5895,10 @@
       <c r="B471" t="s">
         <v>21</v>
       </c>
-      <c r="C471" s="13" t="s">
+      <c r="C471" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D471" s="12" t="s">
+      <c r="D471" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F471" s="1" t="s">
@@ -5866,10 +5912,10 @@
       <c r="B472" t="s">
         <v>21</v>
       </c>
-      <c r="C472" s="13" t="s">
+      <c r="C472" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D472" s="12" t="s">
+      <c r="D472" s="8" t="s">
         <v>83</v>
       </c>
       <c r="F472" s="1" t="s">
@@ -5883,8 +5929,8 @@
       <c r="B473" t="s">
         <v>21</v>
       </c>
-      <c r="C473" s="13"/>
-      <c r="D473" s="12"/>
+      <c r="C473" s="9"/>
+      <c r="D473" s="8"/>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474">
@@ -5893,8 +5939,8 @@
       <c r="B474" t="s">
         <v>21</v>
       </c>
-      <c r="C474" s="13"/>
-      <c r="D474" s="12"/>
+      <c r="C474" s="9"/>
+      <c r="D474" s="8"/>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475">
@@ -5903,8 +5949,8 @@
       <c r="B475" t="s">
         <v>21</v>
       </c>
-      <c r="C475" s="13"/>
-      <c r="D475" s="12"/>
+      <c r="C475" s="9"/>
+      <c r="D475" s="8"/>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476">
@@ -5913,8 +5959,8 @@
       <c r="B476" t="s">
         <v>21</v>
       </c>
-      <c r="C476" s="13"/>
-      <c r="D476" s="12"/>
+      <c r="C476" s="9"/>
+      <c r="D476" s="8"/>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477">
@@ -5923,10 +5969,10 @@
       <c r="B477" t="s">
         <v>21</v>
       </c>
-      <c r="C477" s="13" t="s">
+      <c r="C477" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D477" s="12" t="s">
+      <c r="D477" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F477" s="1" t="s">
@@ -5940,10 +5986,10 @@
       <c r="B478" t="s">
         <v>21</v>
       </c>
-      <c r="C478" s="13" t="s">
+      <c r="C478" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D478" s="12" t="s">
+      <c r="D478" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F478" s="1" t="s">
@@ -5957,10 +6003,10 @@
       <c r="B479" t="s">
         <v>21</v>
       </c>
-      <c r="C479" s="13" t="s">
+      <c r="C479" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D479" s="12" t="s">
+      <c r="D479" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F479" s="1" t="s">
@@ -5974,10 +6020,10 @@
       <c r="B480" t="s">
         <v>21</v>
       </c>
-      <c r="C480" s="13" t="s">
+      <c r="C480" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D480" s="12" t="s">
+      <c r="D480" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F480" s="1" t="s">
@@ -6594,7 +6640,7 @@
       <c r="D601" t="s">
         <v>50</v>
       </c>
-      <c r="E601" s="2" t="s">
+      <c r="E601" t="s">
         <v>105</v>
       </c>
       <c r="F601" s="1" t="s">
@@ -6611,7 +6657,7 @@
       <c r="D602" t="s">
         <v>50</v>
       </c>
-      <c r="E602" s="2" t="s">
+      <c r="E602" t="s">
         <v>105</v>
       </c>
       <c r="F602" s="1" t="s">
@@ -6628,7 +6674,7 @@
       <c r="D603" t="s">
         <v>50</v>
       </c>
-      <c r="E603" s="2" t="s">
+      <c r="E603" t="s">
         <v>105</v>
       </c>
       <c r="F603" s="1" t="s">
@@ -6645,7 +6691,7 @@
       <c r="D604" t="s">
         <v>50</v>
       </c>
-      <c r="E604" s="2" t="s">
+      <c r="E604" t="s">
         <v>105</v>
       </c>
       <c r="F604" s="1" t="s">
@@ -6662,7 +6708,7 @@
       <c r="D605" t="s">
         <v>50</v>
       </c>
-      <c r="E605" s="2" t="s">
+      <c r="E605" t="s">
         <v>105</v>
       </c>
       <c r="F605" s="1" t="s">
@@ -6701,7 +6747,7 @@
       <c r="C611" t="s">
         <v>106</v>
       </c>
-      <c r="E611" s="2" t="s">
+      <c r="E611" t="s">
         <v>112</v>
       </c>
       <c r="F611" s="1" t="s">
@@ -6715,7 +6761,7 @@
       <c r="C612" t="s">
         <v>107</v>
       </c>
-      <c r="E612" s="2" t="s">
+      <c r="E612" t="s">
         <v>112</v>
       </c>
       <c r="F612" s="1" t="s">
@@ -6729,7 +6775,7 @@
       <c r="C613" t="s">
         <v>108</v>
       </c>
-      <c r="E613" s="2" t="s">
+      <c r="E613" t="s">
         <v>112</v>
       </c>
       <c r="F613" s="1" t="s">
@@ -6743,7 +6789,7 @@
       <c r="C614" t="s">
         <v>109</v>
       </c>
-      <c r="E614" s="2" t="s">
+      <c r="E614" t="s">
         <v>112</v>
       </c>
       <c r="F614" s="1" t="s">
@@ -6757,7 +6803,7 @@
       <c r="C615" t="s">
         <v>110</v>
       </c>
-      <c r="E615" s="2" t="s">
+      <c r="E615" t="s">
         <v>112</v>
       </c>
       <c r="F615" s="1" t="s">
@@ -6771,7 +6817,7 @@
       <c r="C616" t="s">
         <v>111</v>
       </c>
-      <c r="E616" s="2" t="s">
+      <c r="E616" t="s">
         <v>112</v>
       </c>
       <c r="F616" s="1" t="s">
@@ -7208,7 +7254,7 @@
       <c r="D701" t="s">
         <v>120</v>
       </c>
-      <c r="E701" s="2" t="s">
+      <c r="E701" t="s">
         <v>121</v>
       </c>
       <c r="F701" s="1" t="s">
@@ -7225,7 +7271,7 @@
       <c r="D702" t="s">
         <v>122</v>
       </c>
-      <c r="E702" s="2" t="s">
+      <c r="E702" t="s">
         <v>48</v>
       </c>
       <c r="F702" s="1" t="s">
@@ -8682,44 +8728,3837 @@
         <v>991</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A993">
         <v>992</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A994">
         <v>993</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A995">
         <v>994</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A996">
         <v>995</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A997">
         <v>996</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A998">
         <v>997</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A999">
         <v>998</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1000">
         <v>999</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1001" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1001" s="10"/>
+      <c r="C1001" s="10"/>
+      <c r="D1001" s="10"/>
+      <c r="E1001" s="10"/>
+      <c r="F1001" s="11"/>
+      <c r="G1001" s="10"/>
+      <c r="H1001" s="10"/>
+      <c r="I1001" s="10"/>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1100">
+        <v>50100</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1100" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1101">
+        <v>50101</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1101" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1102">
+        <v>50102</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1102" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1103">
+        <v>50103</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1103" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1104">
+        <v>50104</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1104" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1105">
+        <v>50105</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1105" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1106">
+        <v>50106</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1106" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1107">
+        <v>50107</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1107" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1108">
+        <v>50108</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1108" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1109">
+        <v>50109</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1109" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1110">
+        <v>50110</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1110" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1111">
+        <v>50111</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1111" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1112">
+        <v>50112</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1112" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1113">
+        <v>50113</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1113" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1114">
+        <v>50114</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1114" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1115">
+        <v>50115</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1115" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1116">
+        <v>50116</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1116" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1117">
+        <v>50117</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1117" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1118">
+        <v>50118</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1118" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1119">
+        <v>50119</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1119" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1120">
+        <v>50120</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1120" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1121">
+        <v>50121</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1121" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1122">
+        <v>50122</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1122" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1123">
+        <v>50123</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1123" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1124">
+        <v>50124</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1124" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1125">
+        <v>50125</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1125" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1126">
+        <v>50126</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1126" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1200">
+        <v>50200</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1200" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1201">
+        <v>50201</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1201" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1202">
+        <v>50202</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1202" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1203">
+        <v>50203</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1203" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1204">
+        <v>50204</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1204" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1205">
+        <v>50205</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1205" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1206">
+        <v>50206</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1206" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1207">
+        <v>50207</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1207" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1208">
+        <v>50208</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1208" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1209">
+        <v>50209</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1209" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1210">
+        <v>50210</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1210" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1211">
+        <v>50211</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1211" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1212">
+        <v>50212</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1212" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1213">
+        <v>50213</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1213" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1214">
+        <v>50214</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1214" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1215">
+        <v>50215</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1215" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1216">
+        <v>50216</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1216" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1217">
+        <v>50217</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1217" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1218">
+        <v>50218</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1218" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1219">
+        <v>50219</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1219" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1220">
+        <v>50220</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1220" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1221">
+        <v>50221</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1221" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1222">
+        <v>50222</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1222" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1223">
+        <v>50223</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1223" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1224">
+        <v>50224</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1224" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1225">
+        <v>50225</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1225" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1226">
+        <v>50226</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1226" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1300">
+        <v>50300</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1300" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1301">
+        <v>50301</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1301" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1302">
+        <v>50302</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1302" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1303">
+        <v>50303</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1303" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1304">
+        <v>50304</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1304" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1305">
+        <v>50305</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1305" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1306">
+        <v>50306</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1306" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1307">
+        <v>50307</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1307" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1308">
+        <v>50308</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1308" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1309">
+        <v>50309</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1309" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1310">
+        <v>50310</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1310" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1311">
+        <v>50311</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1311" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1312">
+        <v>50312</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1312" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1313">
+        <v>50313</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1313" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1314">
+        <v>50314</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1314" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1315">
+        <v>50315</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1315" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1316">
+        <v>50316</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1316" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1317">
+        <v>50317</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1317" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1318">
+        <v>50318</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1318" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1319">
+        <v>50319</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1319" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1320">
+        <v>50320</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1320" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1321">
+        <v>50321</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1321" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1322">
+        <v>50322</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1322" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1323">
+        <v>50323</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1323" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1324">
+        <v>50324</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1324" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1325">
+        <v>50325</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1325" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1326">
+        <v>50326</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1326" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1400">
+        <v>50400</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1400" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1401">
+        <v>50401</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1401" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1402">
+        <v>50402</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1402" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1403">
+        <v>50403</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1403" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1404">
+        <v>50404</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1404" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1405">
+        <v>50405</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1405" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1406">
+        <v>50406</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1406" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1407">
+        <v>50407</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1407" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1408">
+        <v>50408</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1408" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1409">
+        <v>50409</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1409" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1410">
+        <v>50410</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1410" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1411">
+        <v>50411</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1411" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1412">
+        <v>50412</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1412" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1413">
+        <v>50413</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1413" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1414">
+        <v>50414</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1414" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1415">
+        <v>50415</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1415" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1416">
+        <v>50416</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1416" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1417">
+        <v>50417</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1417" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1418">
+        <v>50418</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1418" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1419">
+        <v>50419</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1419" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1420">
+        <v>50420</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1420" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1421">
+        <v>50421</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1421" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1422">
+        <v>50422</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1422" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1423">
+        <v>50423</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1423" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1424">
+        <v>50424</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1424" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1425">
+        <v>50425</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1425" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1426">
+        <v>50426</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1426" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1500">
+        <v>50500</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1500" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1501">
+        <v>50501</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1501" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1502">
+        <v>50502</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1502" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1503">
+        <v>50503</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1503" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1504">
+        <v>50504</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1504" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1505">
+        <v>50505</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1505" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1506">
+        <v>50506</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1506" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1507">
+        <v>50507</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1507" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1508">
+        <v>50508</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1508" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1509">
+        <v>50509</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1509" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1510">
+        <v>50510</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1510" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1511">
+        <v>50511</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1511" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1512">
+        <v>50512</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1512" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1513">
+        <v>50513</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1513" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1514">
+        <v>50514</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1514" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1515">
+        <v>50515</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1515" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1516">
+        <v>50516</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1516" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1517">
+        <v>50517</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1517" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1518">
+        <v>50518</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1518" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1519">
+        <v>50519</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1519" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1520">
+        <v>50520</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1520" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1521">
+        <v>50521</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1521" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1522">
+        <v>50522</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1522" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1523">
+        <v>50523</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1523" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1524">
+        <v>50524</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1524" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1525">
+        <v>50525</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1525" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1526">
+        <v>50526</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1526" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1600">
+        <v>50600</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1600" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1601">
+        <v>50601</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1601" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1602">
+        <v>50602</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1602" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1603">
+        <v>50603</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1603" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1604">
+        <v>50604</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1604" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1604" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1605">
+        <v>50605</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1605" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1606">
+        <v>50606</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1606" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1607">
+        <v>50607</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1607" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1608">
+        <v>50608</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1608" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1609">
+        <v>50609</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1609" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1609" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1610">
+        <v>50610</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1610" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1611">
+        <v>50611</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1611" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1611" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1612">
+        <v>50612</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1612" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1613">
+        <v>50613</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1613" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1614">
+        <v>50614</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1614" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1614" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1615">
+        <v>50615</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1615" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1616">
+        <v>50616</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1616" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1617">
+        <v>50617</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1617" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1617" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1618">
+        <v>50618</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1618" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1619">
+        <v>50619</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1619" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1619" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1620">
+        <v>50620</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1620" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1620" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1621">
+        <v>50621</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1621" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1621" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1622">
+        <v>50622</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1622" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1622" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1623">
+        <v>50623</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1623" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1624">
+        <v>50624</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1624" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1625">
+        <v>50625</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1625" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1626">
+        <v>50626</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1626" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1700">
+        <v>50700</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1700" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1700" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1701">
+        <v>50701</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1701" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1701" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1702">
+        <v>50702</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1702" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1702" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1703">
+        <v>50703</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1703" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1703" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1704">
+        <v>50704</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1704" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1704" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1705">
+        <v>50705</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1705" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1705" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1706">
+        <v>50706</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1706" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1706" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1707">
+        <v>50707</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1707" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1707" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1708">
+        <v>50708</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1708" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1708" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1709">
+        <v>50709</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1709" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1709" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1710">
+        <v>50710</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1710" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1710" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1711">
+        <v>50711</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1711" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1711" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1712">
+        <v>50712</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1712" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1712" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1713">
+        <v>50713</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1713" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1713" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1714">
+        <v>50714</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1714" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1714" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1715">
+        <v>50715</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1715" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1715" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1716">
+        <v>50716</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1716" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1717">
+        <v>50717</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1717" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1717" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1718">
+        <v>50718</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1718" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1718" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1719">
+        <v>50719</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1719" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1719" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1720">
+        <v>50720</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1720" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1720" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1721">
+        <v>50721</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1721" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1722">
+        <v>50722</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1722" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1722" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1723">
+        <v>50723</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1723" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1724">
+        <v>50724</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1724" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1725">
+        <v>50725</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1725" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1726">
+        <v>50726</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1726" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/MetIDs.xlsx
+++ b/Documentation/MetIDs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5995DCA7-D985-46E1-A37C-06DA6B132384}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EC6237-A765-495B-9558-0E7355E791B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="156">
   <si>
     <t>NetID</t>
   </si>
@@ -464,6 +464,30 @@
   </si>
   <si>
     <t>Dreadnaught 6</t>
+  </si>
+  <si>
+    <t>Shredder</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Impact (Crater)</t>
+  </si>
+  <si>
+    <t>Shredder (1)</t>
+  </si>
+  <si>
+    <t>Shredder (2)</t>
+  </si>
+  <si>
+    <t>Shredder (3)</t>
+  </si>
+  <si>
+    <t>Shredder (4)</t>
+  </si>
+  <si>
+    <t>Shredder (5)</t>
   </si>
 </sst>
 </file>
@@ -845,11 +869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD1726"/>
+  <dimension ref="A1:BD1805"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1710" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1700" sqref="A1700:A1726"/>
+      <pane ySplit="1" topLeftCell="A1788" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1805" sqref="D1805"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -12561,6 +12585,90 @@
         <v>127</v>
       </c>
     </row>
+    <row r="1800" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1800">
+        <v>60000</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1800" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1801">
+        <v>60001</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1801" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1802">
+        <v>60002</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1802" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1803">
+        <v>60003</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1803" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1804">
+        <v>60004</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1804" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1805">
+        <v>60005</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1805" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/MetIDs.xlsx
+++ b/Documentation/MetIDs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4CA36C-8F7E-4EE0-911D-B84D835B0CDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5D7B7B-A6E3-48E5-A4F8-601BE93F85C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8263" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-130" yWindow="2700" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="142">
   <si>
     <t>NetID</t>
   </si>
@@ -382,9 +382,6 @@
     <t>Transport(Ship)_1 (2)/(RIght Turret)</t>
   </si>
   <si>
-    <t>Com</t>
-  </si>
-  <si>
     <t>Com_Controller</t>
   </si>
   <si>
@@ -401,16 +398,70 @@
   </si>
   <si>
     <t>Games</t>
+  </si>
+  <si>
+    <t>Bot (0)</t>
+  </si>
+  <si>
+    <t>Bot (1)</t>
+  </si>
+  <si>
+    <t>Bot (2)</t>
+  </si>
+  <si>
+    <t>Bot (3)</t>
+  </si>
+  <si>
+    <t>Bot (4)</t>
+  </si>
+  <si>
+    <t>Bot (5)</t>
+  </si>
+  <si>
+    <t>Bot (15)</t>
+  </si>
+  <si>
+    <t>Bot (6)</t>
+  </si>
+  <si>
+    <t>Bot (7)</t>
+  </si>
+  <si>
+    <t>Bot (8)</t>
+  </si>
+  <si>
+    <t>Bot (9)</t>
+  </si>
+  <si>
+    <t>Bot (10)</t>
+  </si>
+  <si>
+    <t>Bot (11)</t>
+  </si>
+  <si>
+    <t>Bot (12)</t>
+  </si>
+  <si>
+    <t>Bot (13)</t>
+  </si>
+  <si>
+    <t>Bot (14)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -781,31 +832,31 @@
   <dimension ref="A1:BD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B442" sqref="B442"/>
+      <pane ySplit="1" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B722" sqref="B722"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.84375" customWidth="1"/>
-    <col min="3" max="3" width="28.07421875" customWidth="1"/>
-    <col min="4" max="4" width="26.921875" customWidth="1"/>
-    <col min="5" max="5" width="25.921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.23046875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.921875" customWidth="1"/>
-    <col min="8" max="8" width="18.61328125" customWidth="1"/>
-    <col min="9" max="9" width="18.23046875" customWidth="1"/>
-    <col min="10" max="10" width="17.07421875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.07421875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.69140625" customWidth="1"/>
-    <col min="13" max="13" width="12.69140625" customWidth="1"/>
-    <col min="14" max="14" width="19.3828125" customWidth="1"/>
-    <col min="15" max="15" width="17.07421875" customWidth="1"/>
-    <col min="16" max="16" width="11.921875" customWidth="1"/>
-    <col min="41" max="41" width="10.15234375" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" customWidth="1"/>
+    <col min="4" max="4" width="26.90625" customWidth="1"/>
+    <col min="5" max="5" width="25.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" customWidth="1"/>
+    <col min="10" max="10" width="17.08984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" customWidth="1"/>
+    <col min="14" max="14" width="19.36328125" customWidth="1"/>
+    <col min="15" max="15" width="17.08984375" customWidth="1"/>
+    <col min="16" max="16" width="11.90625" customWidth="1"/>
+    <col min="41" max="41" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +1013,7 @@
       <c r="BC1" s="2"/>
       <c r="BD1" s="3"/>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1035,7 +1086,7 @@
         <v>7000</v>
       </c>
       <c r="AM2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AO2" s="1" t="s">
@@ -1045,7 +1096,7 @@
         <v>8000</v>
       </c>
       <c r="AR2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="1" t="s">
@@ -1059,7 +1110,7 @@
       <c r="BC2" s="2"/>
       <c r="BD2" s="1"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1132,7 +1183,7 @@
         <v>7001</v>
       </c>
       <c r="AM3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="1" t="s">
@@ -1142,7 +1193,7 @@
         <v>8001</v>
       </c>
       <c r="AR3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="1" t="s">
@@ -1156,7 +1207,7 @@
       <c r="BC3" s="2"/>
       <c r="BD3" s="1"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1172,7 +1223,7 @@
       <c r="AS4" s="2"/>
       <c r="AT4" s="1"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1188,7 +1239,7 @@
       <c r="AS5" s="2"/>
       <c r="AT5" s="1"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1196,27 +1247,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1230,7 +1281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1244,7 +1295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1258,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1272,7 +1323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1286,7 +1337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1300,7 +1351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1314,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1328,27 +1379,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1362,7 +1413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1376,7 +1427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1390,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1404,42 +1455,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1452,7 +1503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1465,7 +1516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1478,7 +1529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1492,7 +1543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1506,17 +1557,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1530,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1544,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1561,7 +1612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1578,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1595,7 +1646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1612,27 +1663,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1649,7 +1700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1669,7 +1720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1686,7 +1737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1706,117 +1757,117 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1826,7 +1877,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1836,7 +1887,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1846,7 +1897,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1856,7 +1907,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1866,7 +1917,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1876,7 +1927,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1886,7 +1937,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1896,7 +1947,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1906,7 +1957,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1916,7 +1967,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1926,7 +1977,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1936,7 +1987,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1946,7 +1997,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1956,7 +2007,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1966,7 +2017,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1976,7 +2027,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -1986,7 +2037,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -1996,7 +2047,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -2006,7 +2057,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -2016,7 +2067,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -2026,7 +2077,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -2036,7 +2087,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -2046,7 +2097,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -2066,7 +2117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -2086,7 +2137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -2106,7 +2157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -2126,7 +2177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -2146,7 +2197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -2166,7 +2217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -2186,7 +2237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -2206,7 +2257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -2226,7 +2277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -2246,7 +2297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -2266,7 +2317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -2286,7 +2337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -2306,7 +2357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -2326,7 +2377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -2346,7 +2397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -2366,7 +2417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -2384,7 +2435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -2404,7 +2455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -2424,7 +2475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2444,7 +2495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2464,7 +2515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2484,7 +2535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2504,7 +2555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2524,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2544,7 +2595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2553,7 +2604,7 @@
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2562,7 +2613,7 @@
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2571,7 +2622,7 @@
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2580,7 +2631,7 @@
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2589,7 +2640,7 @@
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2597,7 +2648,7 @@
       <c r="C130" s="13"/>
       <c r="D130" s="12"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2605,7 +2656,7 @@
       <c r="C131" s="13"/>
       <c r="D131" s="12"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2622,7 +2673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2639,7 +2690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2656,7 +2707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2673,7 +2724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2681,7 +2732,7 @@
       <c r="C136" s="13"/>
       <c r="D136" s="12"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2689,7 +2740,7 @@
       <c r="C137" s="13"/>
       <c r="D137" s="12"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2697,7 +2748,7 @@
       <c r="C138" s="13"/>
       <c r="D138" s="12"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2705,12 +2756,12 @@
       <c r="C139" s="13"/>
       <c r="D139" s="12"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2727,7 +2778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2744,7 +2795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2761,7 +2812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2778,7 +2829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2795,7 +2846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2812,7 +2863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2829,7 +2880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2846,267 +2897,267 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3117,7 +3168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3137,7 +3188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3157,7 +3208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3177,7 +3228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3197,7 +3248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3217,7 +3268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3237,7 +3288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3257,7 +3308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3277,7 +3328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3297,7 +3348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3305,7 +3356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -3325,7 +3376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -3339,7 +3390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -3359,7 +3410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -3379,7 +3430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -3399,7 +3450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -3419,7 +3470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -3429,7 +3480,7 @@
       <c r="E218" s="5"/>
       <c r="F218" s="6"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -3439,7 +3490,7 @@
       <c r="E219" s="5"/>
       <c r="F219" s="6"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -3449,7 +3500,7 @@
       <c r="E220" s="5"/>
       <c r="F220" s="6"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -3459,7 +3510,7 @@
       <c r="E221" s="5"/>
       <c r="F221" s="6"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -3469,7 +3520,7 @@
       <c r="E222" s="5"/>
       <c r="F222" s="6"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -3479,7 +3530,7 @@
       <c r="E223" s="5"/>
       <c r="F223" s="6"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -3489,7 +3540,7 @@
       <c r="E224" s="5"/>
       <c r="F224" s="6"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -3499,7 +3550,7 @@
       <c r="E225" s="5"/>
       <c r="F225" s="6"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -3509,7 +3560,7 @@
       <c r="E226" s="5"/>
       <c r="F226" s="6"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -3519,7 +3570,7 @@
       <c r="E227" s="5"/>
       <c r="F227" s="6"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -3529,7 +3580,7 @@
       <c r="E228" s="5"/>
       <c r="F228" s="6"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -3539,7 +3590,7 @@
       <c r="E229" s="5"/>
       <c r="F229" s="6"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -3549,7 +3600,7 @@
       <c r="E230" s="5"/>
       <c r="F230" s="6"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -3559,7 +3610,7 @@
       <c r="E231" s="5"/>
       <c r="F231" s="6"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -3569,7 +3620,7 @@
       <c r="E232" s="5"/>
       <c r="F232" s="6"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -3579,7 +3630,7 @@
       <c r="E233" s="5"/>
       <c r="F233" s="6"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -3597,7 +3648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -3617,7 +3668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -3635,7 +3686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -3653,7 +3704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -3671,7 +3722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -3689,7 +3740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -3707,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -3715,19 +3766,19 @@
         <v>16</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F241" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -3737,7 +3788,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="10"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -3747,7 +3798,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -3757,7 +3808,7 @@
       <c r="E244" s="11"/>
       <c r="F244" s="10"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -3767,7 +3818,7 @@
       <c r="E245" s="11"/>
       <c r="F245" s="10"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -3777,7 +3828,7 @@
       <c r="E246" s="11"/>
       <c r="F246" s="10"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -3787,7 +3838,7 @@
       <c r="E247" s="11"/>
       <c r="F247" s="10"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -3797,7 +3848,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="10"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -3807,7 +3858,7 @@
       <c r="E249" s="11"/>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -3817,7 +3868,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="10"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -3827,7 +3878,7 @@
       <c r="E251" s="11"/>
       <c r="F251" s="10"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -3837,7 +3888,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="10"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -3847,7 +3898,7 @@
       <c r="E253" s="11"/>
       <c r="F253" s="10"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -3857,7 +3908,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="10"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -3867,7 +3918,7 @@
       <c r="E255" s="11"/>
       <c r="F255" s="10"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -3877,7 +3928,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="10"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -3887,7 +3938,7 @@
       <c r="E257" s="11"/>
       <c r="F257" s="10"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -3897,7 +3948,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="10"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -3907,7 +3958,7 @@
       <c r="E259" s="11"/>
       <c r="F259" s="10"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -3917,7 +3968,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="10"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -3927,7 +3978,7 @@
       <c r="E261" s="11"/>
       <c r="F261" s="10"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -3943,7 +3994,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="10"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -3959,7 +4010,7 @@
       <c r="E263" s="11"/>
       <c r="F263" s="10"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -3975,7 +4026,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="10"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -3991,7 +4042,7 @@
       <c r="E265" s="11"/>
       <c r="F265" s="10"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -4011,7 +4062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -4020,7 +4071,7 @@
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -4040,7 +4091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -4049,7 +4100,7 @@
       <c r="D269" s="12"/>
       <c r="E269" s="12"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -4069,7 +4120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -4086,7 +4137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -4103,7 +4154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -4111,7 +4162,7 @@
       <c r="C273" s="13"/>
       <c r="D273" s="12"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
@@ -4119,7 +4170,7 @@
       <c r="C274" s="13"/>
       <c r="D274" s="12"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
@@ -4127,7 +4178,7 @@
       <c r="C275" s="13"/>
       <c r="D275" s="12"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -4135,7 +4186,7 @@
       <c r="C276" s="13"/>
       <c r="D276" s="12"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -4152,7 +4203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -4169,7 +4220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -4186,7 +4237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -4203,607 +4254,607 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>400</v>
       </c>
@@ -4814,7 +4865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>401</v>
       </c>
@@ -4834,7 +4885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>402</v>
       </c>
@@ -4854,7 +4905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>403</v>
       </c>
@@ -4874,7 +4925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>404</v>
       </c>
@@ -4894,7 +4945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>405</v>
       </c>
@@ -4914,7 +4965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>406</v>
       </c>
@@ -4934,7 +4985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>407</v>
       </c>
@@ -4954,7 +5005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>408</v>
       </c>
@@ -4974,7 +5025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>409</v>
       </c>
@@ -4994,7 +5045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>410</v>
       </c>
@@ -5002,7 +5053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>411</v>
       </c>
@@ -5022,7 +5073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>412</v>
       </c>
@@ -5036,7 +5087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>413</v>
       </c>
@@ -5056,7 +5107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>414</v>
       </c>
@@ -5076,7 +5127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>415</v>
       </c>
@@ -5096,7 +5147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>416</v>
       </c>
@@ -5116,7 +5167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>417</v>
       </c>
@@ -5128,7 +5179,7 @@
       <c r="E418" s="5"/>
       <c r="F418" s="6"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>418</v>
       </c>
@@ -5140,7 +5191,7 @@
       <c r="E419" s="5"/>
       <c r="F419" s="6"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>419</v>
       </c>
@@ -5152,7 +5203,7 @@
       <c r="E420" s="5"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>420</v>
       </c>
@@ -5164,7 +5215,7 @@
       <c r="E421" s="5"/>
       <c r="F421" s="6"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>421</v>
       </c>
@@ -5176,7 +5227,7 @@
       <c r="E422" s="5"/>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>422</v>
       </c>
@@ -5188,7 +5239,7 @@
       <c r="E423" s="5"/>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>423</v>
       </c>
@@ -5200,7 +5251,7 @@
       <c r="E424" s="5"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>424</v>
       </c>
@@ -5212,7 +5263,7 @@
       <c r="E425" s="5"/>
       <c r="F425" s="6"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>425</v>
       </c>
@@ -5224,7 +5275,7 @@
       <c r="E426" s="5"/>
       <c r="F426" s="6"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>426</v>
       </c>
@@ -5236,7 +5287,7 @@
       <c r="E427" s="5"/>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>427</v>
       </c>
@@ -5248,7 +5299,7 @@
       <c r="E428" s="5"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>428</v>
       </c>
@@ -5260,7 +5311,7 @@
       <c r="E429" s="5"/>
       <c r="F429" s="6"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>429</v>
       </c>
@@ -5272,7 +5323,7 @@
       <c r="E430" s="5"/>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>430</v>
       </c>
@@ -5284,7 +5335,7 @@
       <c r="E431" s="5"/>
       <c r="F431" s="6"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>431</v>
       </c>
@@ -5296,7 +5347,7 @@
       <c r="E432" s="5"/>
       <c r="F432" s="6"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>432</v>
       </c>
@@ -5308,7 +5359,7 @@
       <c r="E433" s="5"/>
       <c r="F433" s="6"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>433</v>
       </c>
@@ -5326,7 +5377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>434</v>
       </c>
@@ -5346,7 +5397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>435</v>
       </c>
@@ -5364,7 +5415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>436</v>
       </c>
@@ -5382,7 +5433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>437</v>
       </c>
@@ -5400,7 +5451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>438</v>
       </c>
@@ -5418,7 +5469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>439</v>
       </c>
@@ -5436,7 +5487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>440</v>
       </c>
@@ -5444,19 +5495,19 @@
         <v>21</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D441" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E441" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F441" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>441</v>
       </c>
@@ -5468,7 +5519,7 @@
       <c r="E442" s="11"/>
       <c r="F442" s="10"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>442</v>
       </c>
@@ -5480,7 +5531,7 @@
       <c r="E443" s="11"/>
       <c r="F443" s="10"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>443</v>
       </c>
@@ -5492,7 +5543,7 @@
       <c r="E444" s="11"/>
       <c r="F444" s="10"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>444</v>
       </c>
@@ -5504,7 +5555,7 @@
       <c r="E445" s="11"/>
       <c r="F445" s="10"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>445</v>
       </c>
@@ -5516,7 +5567,7 @@
       <c r="E446" s="11"/>
       <c r="F446" s="10"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>446</v>
       </c>
@@ -5528,7 +5579,7 @@
       <c r="E447" s="11"/>
       <c r="F447" s="10"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>447</v>
       </c>
@@ -5540,7 +5591,7 @@
       <c r="E448" s="11"/>
       <c r="F448" s="10"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>448</v>
       </c>
@@ -5552,7 +5603,7 @@
       <c r="E449" s="11"/>
       <c r="F449" s="10"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>449</v>
       </c>
@@ -5564,7 +5615,7 @@
       <c r="E450" s="11"/>
       <c r="F450" s="10"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>450</v>
       </c>
@@ -5576,7 +5627,7 @@
       <c r="E451" s="11"/>
       <c r="F451" s="10"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>451</v>
       </c>
@@ -5588,7 +5639,7 @@
       <c r="E452" s="11"/>
       <c r="F452" s="10"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>452</v>
       </c>
@@ -5600,7 +5651,7 @@
       <c r="E453" s="11"/>
       <c r="F453" s="10"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>453</v>
       </c>
@@ -5612,7 +5663,7 @@
       <c r="E454" s="11"/>
       <c r="F454" s="10"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>454</v>
       </c>
@@ -5624,7 +5675,7 @@
       <c r="E455" s="11"/>
       <c r="F455" s="10"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>455</v>
       </c>
@@ -5636,7 +5687,7 @@
       <c r="E456" s="11"/>
       <c r="F456" s="10"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>456</v>
       </c>
@@ -5648,7 +5699,7 @@
       <c r="E457" s="11"/>
       <c r="F457" s="10"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>457</v>
       </c>
@@ -5660,7 +5711,7 @@
       <c r="E458" s="11"/>
       <c r="F458" s="10"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>458</v>
       </c>
@@ -5672,7 +5723,7 @@
       <c r="E459" s="11"/>
       <c r="F459" s="10"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>459</v>
       </c>
@@ -5684,7 +5735,7 @@
       <c r="E460" s="11"/>
       <c r="F460" s="10"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>460</v>
       </c>
@@ -5696,7 +5747,7 @@
       <c r="E461" s="11"/>
       <c r="F461" s="10"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>461</v>
       </c>
@@ -5712,7 +5763,7 @@
       <c r="E462" s="11"/>
       <c r="F462" s="10"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>462</v>
       </c>
@@ -5728,7 +5779,7 @@
       <c r="E463" s="11"/>
       <c r="F463" s="10"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>463</v>
       </c>
@@ -5744,7 +5795,7 @@
       <c r="E464" s="11"/>
       <c r="F464" s="10"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>464</v>
       </c>
@@ -5760,7 +5811,7 @@
       <c r="E465" s="11"/>
       <c r="F465" s="10"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>465</v>
       </c>
@@ -5780,7 +5831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>466</v>
       </c>
@@ -5791,7 +5842,7 @@
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>467</v>
       </c>
@@ -5811,7 +5862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>468</v>
       </c>
@@ -5822,7 +5873,7 @@
       <c r="D469" s="12"/>
       <c r="E469" s="12"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>469</v>
       </c>
@@ -5842,7 +5893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>470</v>
       </c>
@@ -5859,7 +5910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>471</v>
       </c>
@@ -5876,7 +5927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>472</v>
       </c>
@@ -5886,7 +5937,7 @@
       <c r="C473" s="13"/>
       <c r="D473" s="12"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>473</v>
       </c>
@@ -5896,7 +5947,7 @@
       <c r="C474" s="13"/>
       <c r="D474" s="12"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>474</v>
       </c>
@@ -5906,7 +5957,7 @@
       <c r="C475" s="13"/>
       <c r="D475" s="12"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>475</v>
       </c>
@@ -5916,7 +5967,7 @@
       <c r="C476" s="13"/>
       <c r="D476" s="12"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>476</v>
       </c>
@@ -5933,7 +5984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>477</v>
       </c>
@@ -5950,7 +6001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>478</v>
       </c>
@@ -5967,7 +6018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>479</v>
       </c>
@@ -5984,607 +6035,607 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>600</v>
       </c>
@@ -6601,7 +6652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>601</v>
       </c>
@@ -6618,7 +6669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>602</v>
       </c>
@@ -6635,7 +6686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>603</v>
       </c>
@@ -6652,7 +6703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>604</v>
       </c>
@@ -6669,32 +6720,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>605</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>606</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>607</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>608</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>609</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>610</v>
       </c>
@@ -6708,7 +6759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>611</v>
       </c>
@@ -6722,7 +6773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>612</v>
       </c>
@@ -6736,7 +6787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>613</v>
       </c>
@@ -6750,7 +6801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>614</v>
       </c>
@@ -6764,7 +6815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>615</v>
       </c>
@@ -6778,452 +6829,452 @@
         <v>7</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>616</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>617</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>618</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>619</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>620</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>621</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>622</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>623</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>624</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>625</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>626</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>627</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>628</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>629</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>630</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>631</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>632</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>633</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>634</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>635</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>636</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>637</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>638</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>639</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>640</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>641</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>642</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>643</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>644</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>645</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>646</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>647</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>648</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>649</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>650</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>651</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>652</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>653</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>654</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>655</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>656</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>657</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>658</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>659</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>660</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>661</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>662</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>663</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>664</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>665</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>666</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>667</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>668</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>669</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>670</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>671</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>672</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>673</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>674</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>675</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>676</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>677</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>678</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>679</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>680</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>681</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>682</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>683</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>684</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>685</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>686</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>687</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>688</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>689</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>690</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>691</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>692</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>693</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>694</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>695</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>696</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>697</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>698</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>699</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>700</v>
       </c>
       <c r="C701" t="s">
+        <v>126</v>
+      </c>
+      <c r="D701" t="s">
+        <v>126</v>
+      </c>
+      <c r="E701" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D701" t="s">
-        <v>120</v>
-      </c>
-      <c r="E701" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F701" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>701</v>
       </c>
       <c r="C702" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D702" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E702" s="2" t="s">
         <v>48</v>
@@ -7232,1497 +7283,1858 @@
         <v>10</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>702</v>
       </c>
-    </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C703" t="s">
+        <v>127</v>
+      </c>
+      <c r="D703" t="s">
+        <v>127</v>
+      </c>
+      <c r="E703" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>703</v>
       </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C704" t="s">
+        <v>127</v>
+      </c>
+      <c r="D704" t="s">
+        <v>121</v>
+      </c>
+      <c r="E704" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>704</v>
       </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C705" t="s">
+        <v>128</v>
+      </c>
+      <c r="D705" t="s">
+        <v>127</v>
+      </c>
+      <c r="E705" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>705</v>
       </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C706" t="s">
+        <v>128</v>
+      </c>
+      <c r="D706" t="s">
+        <v>121</v>
+      </c>
+      <c r="E706" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>706</v>
       </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C707" t="s">
+        <v>129</v>
+      </c>
+      <c r="D707" t="s">
+        <v>127</v>
+      </c>
+      <c r="E707" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>707</v>
       </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C708" t="s">
+        <v>129</v>
+      </c>
+      <c r="D708" t="s">
+        <v>121</v>
+      </c>
+      <c r="E708" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>708</v>
       </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C709" t="s">
+        <v>130</v>
+      </c>
+      <c r="D709" t="s">
+        <v>127</v>
+      </c>
+      <c r="E709" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>709</v>
       </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C710" t="s">
+        <v>130</v>
+      </c>
+      <c r="D710" t="s">
+        <v>121</v>
+      </c>
+      <c r="E710" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>710</v>
       </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C711" t="s">
+        <v>131</v>
+      </c>
+      <c r="D711" t="s">
+        <v>127</v>
+      </c>
+      <c r="E711" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>711</v>
       </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C712" t="s">
+        <v>131</v>
+      </c>
+      <c r="D712" t="s">
+        <v>121</v>
+      </c>
+      <c r="E712" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>712</v>
       </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C713" t="s">
+        <v>133</v>
+      </c>
+      <c r="D713" t="s">
+        <v>127</v>
+      </c>
+      <c r="E713" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>713</v>
       </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C714" t="s">
+        <v>133</v>
+      </c>
+      <c r="D714" t="s">
+        <v>121</v>
+      </c>
+      <c r="E714" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>714</v>
       </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C715" t="s">
+        <v>134</v>
+      </c>
+      <c r="D715" t="s">
+        <v>127</v>
+      </c>
+      <c r="E715" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>715</v>
       </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C716" t="s">
+        <v>134</v>
+      </c>
+      <c r="D716" t="s">
+        <v>121</v>
+      </c>
+      <c r="E716" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>716</v>
       </c>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C717" t="s">
+        <v>135</v>
+      </c>
+      <c r="D717" t="s">
+        <v>127</v>
+      </c>
+      <c r="E717" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>717</v>
       </c>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C718" t="s">
+        <v>135</v>
+      </c>
+      <c r="D718" t="s">
+        <v>121</v>
+      </c>
+      <c r="E718" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>718</v>
       </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C719" t="s">
+        <v>136</v>
+      </c>
+      <c r="D719" t="s">
+        <v>127</v>
+      </c>
+      <c r="E719" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>719</v>
       </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C720" t="s">
+        <v>136</v>
+      </c>
+      <c r="D720" t="s">
+        <v>121</v>
+      </c>
+      <c r="E720" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F720" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>720</v>
       </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C721" t="s">
+        <v>137</v>
+      </c>
+      <c r="D721" t="s">
+        <v>127</v>
+      </c>
+      <c r="E721" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F721" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>721</v>
       </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C722" t="s">
+        <v>137</v>
+      </c>
+      <c r="D722" t="s">
+        <v>121</v>
+      </c>
+      <c r="E722" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F722" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>722</v>
       </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C723" t="s">
+        <v>138</v>
+      </c>
+      <c r="D723" t="s">
+        <v>127</v>
+      </c>
+      <c r="E723" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>723</v>
       </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C724" t="s">
+        <v>138</v>
+      </c>
+      <c r="D724" t="s">
+        <v>121</v>
+      </c>
+      <c r="E724" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F724" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>724</v>
       </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C725" t="s">
+        <v>139</v>
+      </c>
+      <c r="D725" t="s">
+        <v>127</v>
+      </c>
+      <c r="E725" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F725" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>725</v>
       </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C726" t="s">
+        <v>139</v>
+      </c>
+      <c r="D726" t="s">
+        <v>121</v>
+      </c>
+      <c r="E726" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>726</v>
       </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C727" t="s">
+        <v>140</v>
+      </c>
+      <c r="D727" t="s">
+        <v>127</v>
+      </c>
+      <c r="E727" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F727" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>727</v>
       </c>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C728" t="s">
+        <v>140</v>
+      </c>
+      <c r="D728" t="s">
+        <v>121</v>
+      </c>
+      <c r="E728" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F728" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>728</v>
       </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C729" t="s">
+        <v>141</v>
+      </c>
+      <c r="D729" t="s">
+        <v>127</v>
+      </c>
+      <c r="E729" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F729" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>729</v>
       </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C730" t="s">
+        <v>141</v>
+      </c>
+      <c r="D730" t="s">
+        <v>121</v>
+      </c>
+      <c r="E730" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F730" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>730</v>
       </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C731" t="s">
+        <v>132</v>
+      </c>
+      <c r="D731" t="s">
+        <v>127</v>
+      </c>
+      <c r="E731" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F731" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>731</v>
       </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C732" t="s">
+        <v>132</v>
+      </c>
+      <c r="D732" t="s">
+        <v>121</v>
+      </c>
+      <c r="E732" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F732" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>732</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>733</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>734</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>735</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>736</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>737</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>738</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>739</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>740</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>741</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>742</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>743</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>744</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>745</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>746</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>747</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>748</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>749</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>750</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>751</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>752</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>753</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>754</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>755</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>756</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>757</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>758</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>759</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>760</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>761</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>762</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>763</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>764</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>765</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>766</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>767</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>768</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>769</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>770</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>771</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>772</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A774">
         <v>773</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A775">
         <v>774</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A776">
         <v>775</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A777">
         <v>776</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A778">
         <v>777</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A779">
         <v>778</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>779</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A781">
         <v>780</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A782">
         <v>781</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>782</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>783</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A785">
         <v>784</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A786">
         <v>785</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>786</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A788">
         <v>787</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A789">
         <v>788</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A790">
         <v>789</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A791">
         <v>790</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A792">
         <v>791</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A793">
         <v>792</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A794">
         <v>793</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A795">
         <v>794</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A796">
         <v>795</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A797">
         <v>796</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A798">
         <v>797</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A799">
         <v>798</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A800">
         <v>799</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A801">
         <v>800</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A802">
         <v>801</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A803">
         <v>802</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A804">
         <v>803</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A805">
         <v>804</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A806">
         <v>805</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A807">
         <v>806</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A808">
         <v>807</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A809">
         <v>808</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A810">
         <v>809</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A811">
         <v>810</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A812">
         <v>811</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A813">
         <v>812</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A814">
         <v>813</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A815">
         <v>814</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A816">
         <v>815</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A817">
         <v>816</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A818">
         <v>817</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A819">
         <v>818</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A820">
         <v>819</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A821">
         <v>820</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A822">
         <v>821</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A823">
         <v>822</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A824">
         <v>823</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A825">
         <v>824</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A826">
         <v>825</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A827">
         <v>826</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A828">
         <v>827</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A829">
         <v>828</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A830">
         <v>829</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A831">
         <v>830</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A832">
         <v>831</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A833">
         <v>832</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A834">
         <v>833</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A835">
         <v>834</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A836">
         <v>835</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A837">
         <v>836</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A838">
         <v>837</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A839">
         <v>838</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A840">
         <v>839</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A841">
         <v>840</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A842">
         <v>841</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A843">
         <v>842</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A844">
         <v>843</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A845">
         <v>844</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A846">
         <v>845</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A847">
         <v>846</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A848">
         <v>847</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A849">
         <v>848</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A850">
         <v>849</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A851">
         <v>850</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A852">
         <v>851</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A853">
         <v>852</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A854">
         <v>853</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A855">
         <v>854</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A856">
         <v>855</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A857">
         <v>856</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A858">
         <v>857</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A859">
         <v>858</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A860">
         <v>859</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A861">
         <v>860</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A862">
         <v>861</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A863">
         <v>862</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A864">
         <v>863</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A865">
         <v>864</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A866">
         <v>865</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A867">
         <v>866</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A868">
         <v>867</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A869">
         <v>868</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A870">
         <v>869</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A871">
         <v>870</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A872">
         <v>871</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A873">
         <v>872</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A874">
         <v>873</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A875">
         <v>874</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A876">
         <v>875</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A877">
         <v>876</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A878">
         <v>877</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A879">
         <v>878</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A880">
         <v>879</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A881">
         <v>880</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A882">
         <v>881</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A883">
         <v>882</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A884">
         <v>883</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A885">
         <v>884</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A886">
         <v>885</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A887">
         <v>886</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A888">
         <v>887</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A889">
         <v>888</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A890">
         <v>889</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A891">
         <v>890</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A892">
         <v>891</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A893">
         <v>892</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A894">
         <v>893</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A895">
         <v>894</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A896">
         <v>895</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A897">
         <v>896</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A898">
         <v>897</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A899">
         <v>898</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A900">
         <v>899</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A901">
         <v>900</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A902">
         <v>901</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A903">
         <v>902</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A904">
         <v>903</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A905">
         <v>904</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A906">
         <v>905</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A907">
         <v>906</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A908">
         <v>907</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A909">
         <v>908</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A910">
         <v>909</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A911">
         <v>910</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A912">
         <v>911</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A913">
         <v>912</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A914">
         <v>913</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A915">
         <v>914</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A916">
         <v>915</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A917">
         <v>916</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A918">
         <v>917</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A919">
         <v>918</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A920">
         <v>919</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A921">
         <v>920</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A922">
         <v>921</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A923">
         <v>922</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A924">
         <v>923</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A925">
         <v>924</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A926">
         <v>925</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A927">
         <v>926</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A928">
         <v>927</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A929">
         <v>928</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A930">
         <v>929</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A931">
         <v>930</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A932">
         <v>931</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A933">
         <v>932</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A934">
         <v>933</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A935">
         <v>934</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A936">
         <v>935</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A937">
         <v>936</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A938">
         <v>937</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A939">
         <v>938</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A940">
         <v>939</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A941">
         <v>940</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A942">
         <v>941</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A943">
         <v>942</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A944">
         <v>943</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A945">
         <v>944</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A946">
         <v>945</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A947">
         <v>946</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A948">
         <v>947</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A949">
         <v>948</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A950">
         <v>949</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A951">
         <v>950</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A952">
         <v>951</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A953">
         <v>952</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A954">
         <v>953</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A955">
         <v>954</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A956">
         <v>955</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A957">
         <v>956</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A958">
         <v>957</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A959">
         <v>958</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A960">
         <v>959</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A961">
         <v>960</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A962">
         <v>961</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A963">
         <v>962</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A964">
         <v>963</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A965">
         <v>964</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A966">
         <v>965</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A967">
         <v>966</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A968">
         <v>967</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A969">
         <v>968</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A970">
         <v>969</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A971">
         <v>970</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A972">
         <v>971</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A973">
         <v>972</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A974">
         <v>973</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A975">
         <v>974</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A976">
         <v>975</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A977">
         <v>976</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A978">
         <v>977</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A979">
         <v>978</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A980">
         <v>979</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A981">
         <v>980</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A982">
         <v>981</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A983">
         <v>982</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A984">
         <v>983</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A985">
         <v>984</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A986">
         <v>985</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A987">
         <v>986</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A988">
         <v>987</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A989">
         <v>988</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A990">
         <v>989</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A991">
         <v>990</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A992">
         <v>991</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A993">
         <v>992</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A994">
         <v>993</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A995">
         <v>994</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A996">
         <v>995</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A997">
         <v>996</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A998">
         <v>997</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A999">
         <v>998</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1000">
         <v>999</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/MetIDs.xlsx
+++ b/Documentation/MetIDs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5D7B7B-A6E3-48E5-A4F8-601BE93F85C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679D0A1E-3AEB-459E-9A1C-C99E94E9AB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-130" yWindow="2700" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="144">
   <si>
     <t>NetID</t>
   </si>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>Bot (14)</t>
+  </si>
+  <si>
+    <t>Pedestal</t>
+  </si>
+  <si>
+    <t>Kyrie</t>
   </si>
 </sst>
 </file>
@@ -832,8 +838,8 @@
   <dimension ref="A1:BD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B722" sqref="B722"/>
+      <pane ySplit="1" topLeftCell="A606" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F621" sqref="F621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6853,6 +6859,15 @@
       <c r="A621">
         <v>620</v>
       </c>
+      <c r="C621" t="s">
+        <v>142</v>
+      </c>
+      <c r="E621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A622">

--- a/Documentation/MetIDs.xlsx
+++ b/Documentation/MetIDs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679D0A1E-3AEB-459E-9A1C-C99E94E9AB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748BD22A-806F-484C-8343-9791DCCDC7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="146">
   <si>
     <t>NetID</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>Kyrie</t>
+  </si>
+  <si>
+    <t>Global Sound</t>
+  </si>
+  <si>
+    <t>GlobalSound</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -555,6 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,8 +845,8 @@
   <dimension ref="A1:BD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A606" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F621" sqref="F621"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1249,6 +1256,12 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>145</v>
+      </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
